--- a/excel_reports/Mark_Abkemeier.xlsx
+++ b/excel_reports/Mark_Abkemeier.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3525" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3495" uniqueCount="922">
   <si>
     <t>Policy Record</t>
   </si>
@@ -2458,24 +2458,6 @@
     <t>Medicare Advantage Choice Plan 3</t>
   </si>
   <si>
-    <t>3355620526</t>
-  </si>
-  <si>
-    <t>16193301</t>
-  </si>
-  <si>
-    <t>Perry</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>Josh</t>
-  </si>
-  <si>
-    <t>Musick</t>
-  </si>
-  <si>
     <t>3685694068</t>
   </si>
   <si>
@@ -2699,18 +2681,6 @@
   </si>
   <si>
     <t>3172404335</t>
-  </si>
-  <si>
-    <t>3828859816</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Seifert</t>
-  </si>
-  <si>
-    <t>AETNA DVH (Standard) 1500</t>
   </si>
   <si>
     <t>3172404320</t>
@@ -3228,12 +3198,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="B2" s="2">
         <v>36</v>
@@ -3241,26 +3211,26 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="B3" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="B5" s="4">
         <f>B3+B4-B2</f>
@@ -3269,7 +3239,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="B6" s="2">
         <v>-30</v>
@@ -3277,30 +3247,30 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="B8" s="4">
         <f>SUM(B5:B7)</f>
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="B9" s="5">
         <f>MAX(0, B8*150)</f>
@@ -3309,12 +3279,12 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="B12" s="2">
         <v>62</v>
@@ -3322,7 +3292,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
@@ -3330,20 +3300,20 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="B17" s="5">
         <f>SUM(Core!T:T)</f>
@@ -3352,12 +3322,12 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -3365,15 +3335,15 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="B21">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -3381,7 +3351,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="B23">
         <f>-B20+B21+B22</f>
@@ -3390,7 +3360,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="B24" s="5">
         <f>B23*50</f>
@@ -3399,17 +3369,17 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -3417,7 +3387,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="B29">
         <f>-B26+B27+B28</f>
@@ -3426,7 +3396,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="B30" s="5">
         <f>B29*100</f>
@@ -3909,7 +3879,7 @@
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>19</v>
@@ -5910,7 +5880,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W320"/>
+  <dimension ref="A1:W318"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13229,28 +13199,28 @@
         <v>813</v>
       </c>
       <c r="C286" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D286" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E286" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="F286" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="G286" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="H286" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="I286" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J286" s="8" t="s">
         <v>814</v>
-      </c>
-      <c r="D286" s="8" t="s">
-        <v>815</v>
-      </c>
-      <c r="E286" s="8" t="s">
-        <v>816</v>
-      </c>
-      <c r="F286" s="8" t="s">
-        <v>817</v>
-      </c>
-      <c r="G286" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="H286" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="I286" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J286" s="8" t="s">
-        <v>785</v>
       </c>
       <c r="K286" t="s">
         <v>19</v>
@@ -13259,10 +13229,10 @@
         <v>31</v>
       </c>
       <c r="M286" t="s">
-        <v>332</v>
+        <v>60</v>
       </c>
       <c r="N286" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q286" s="8" t="s">
         <v>333</v>
@@ -13273,16 +13243,16 @@
     </row>
     <row r="288" spans="1:19">
       <c r="A288" s="7" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C288" s="8" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D288" s="8" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="E288" s="8" t="s">
         <v>328</v>
@@ -13297,25 +13267,25 @@
         <v>329</v>
       </c>
       <c r="I288" s="8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J288" s="8" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="K288" t="s">
         <v>19</v>
       </c>
       <c r="L288" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M288" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="N288" t="s">
         <v>21</v>
       </c>
       <c r="Q288" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="S288" s="10" t="s">
         <v>334</v>
@@ -13323,16 +13293,16 @@
     </row>
     <row r="290" spans="1:19">
       <c r="A290" s="7" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C290" s="8" t="s">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="D290" s="8" t="s">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="E290" s="8" t="s">
         <v>328</v>
@@ -13350,7 +13320,7 @@
         <v>30</v>
       </c>
       <c r="J290" s="8" t="s">
-        <v>823</v>
+        <v>703</v>
       </c>
       <c r="K290" t="s">
         <v>19</v>
@@ -13359,7 +13329,7 @@
         <v>31</v>
       </c>
       <c r="M290" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="N290" t="s">
         <v>21</v>
@@ -13373,16 +13343,16 @@
     </row>
     <row r="292" spans="1:19">
       <c r="A292" s="7" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="C292" s="8" t="s">
-        <v>85</v>
+        <v>294</v>
       </c>
       <c r="D292" s="8" t="s">
-        <v>86</v>
+        <v>822</v>
       </c>
       <c r="E292" s="8" t="s">
         <v>328</v>
@@ -13397,10 +13367,10 @@
         <v>329</v>
       </c>
       <c r="I292" s="8" t="s">
-        <v>30</v>
+        <v>232</v>
       </c>
       <c r="J292" s="8" t="s">
-        <v>703</v>
+        <v>823</v>
       </c>
       <c r="K292" t="s">
         <v>19</v>
@@ -13409,10 +13379,10 @@
         <v>31</v>
       </c>
       <c r="M292" t="s">
-        <v>60</v>
+        <v>442</v>
       </c>
       <c r="N292" t="s">
-        <v>21</v>
+        <v>377</v>
       </c>
       <c r="Q292" s="8" t="s">
         <v>333</v>
@@ -13423,34 +13393,34 @@
     </row>
     <row r="294" spans="1:19">
       <c r="A294" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="B294" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="C294" s="8" t="s">
         <v>826</v>
       </c>
-      <c r="B294" s="7" t="s">
+      <c r="D294" s="8" t="s">
         <v>827</v>
       </c>
-      <c r="C294" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="D294" s="8" t="s">
+      <c r="E294" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="F294" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="G294" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="H294" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="I294" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J294" s="8" t="s">
         <v>828</v>
-      </c>
-      <c r="E294" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="F294" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="G294" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="H294" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="I294" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="J294" s="8" t="s">
-        <v>829</v>
       </c>
       <c r="K294" t="s">
         <v>19</v>
@@ -13459,10 +13429,10 @@
         <v>31</v>
       </c>
       <c r="M294" t="s">
-        <v>442</v>
+        <v>766</v>
       </c>
       <c r="N294" t="s">
-        <v>377</v>
+        <v>32</v>
       </c>
       <c r="Q294" s="8" t="s">
         <v>333</v>
@@ -13473,17 +13443,17 @@
     </row>
     <row r="296" spans="1:19">
       <c r="A296" s="7" t="s">
+        <v>829</v>
+      </c>
+      <c r="B296" s="7" t="s">
         <v>830</v>
       </c>
-      <c r="B296" s="7" t="s">
+      <c r="C296" s="8" t="s">
         <v>831</v>
       </c>
-      <c r="C296" s="8" t="s">
+      <c r="D296" s="8" t="s">
         <v>832</v>
       </c>
-      <c r="D296" s="8" t="s">
-        <v>833</v>
-      </c>
       <c r="E296" s="8" t="s">
         <v>328</v>
       </c>
@@ -13497,10 +13467,10 @@
         <v>329</v>
       </c>
       <c r="I296" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J296" s="8" t="s">
-        <v>834</v>
+        <v>788</v>
       </c>
       <c r="K296" t="s">
         <v>19</v>
@@ -13509,7 +13479,7 @@
         <v>31</v>
       </c>
       <c r="M296" t="s">
-        <v>766</v>
+        <v>513</v>
       </c>
       <c r="N296" t="s">
         <v>32</v>
@@ -13523,16 +13493,16 @@
     </row>
     <row r="298" spans="1:19">
       <c r="A298" s="7" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C298" s="8" t="s">
-        <v>837</v>
+        <v>89</v>
       </c>
       <c r="D298" s="8" t="s">
-        <v>838</v>
+        <v>90</v>
       </c>
       <c r="E298" s="8" t="s">
         <v>328</v>
@@ -13547,10 +13517,10 @@
         <v>329</v>
       </c>
       <c r="I298" s="8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J298" s="8" t="s">
-        <v>788</v>
+        <v>719</v>
       </c>
       <c r="K298" t="s">
         <v>19</v>
@@ -13559,10 +13529,10 @@
         <v>31</v>
       </c>
       <c r="M298" t="s">
-        <v>513</v>
+        <v>60</v>
       </c>
       <c r="N298" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="Q298" s="8" t="s">
         <v>333</v>
@@ -13573,16 +13543,16 @@
     </row>
     <row r="300" spans="1:19">
       <c r="A300" s="7" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="C300" s="8" t="s">
-        <v>89</v>
+        <v>178</v>
       </c>
       <c r="D300" s="8" t="s">
-        <v>90</v>
+        <v>837</v>
       </c>
       <c r="E300" s="8" t="s">
         <v>328</v>
@@ -13600,22 +13570,19 @@
         <v>30</v>
       </c>
       <c r="J300" s="8" t="s">
-        <v>719</v>
+        <v>838</v>
       </c>
       <c r="K300" t="s">
         <v>19</v>
       </c>
       <c r="L300" t="s">
-        <v>31</v>
-      </c>
-      <c r="M300" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="N300" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="Q300" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="S300" s="10" t="s">
         <v>334</v>
@@ -13623,16 +13590,16 @@
     </row>
     <row r="302" spans="1:19">
       <c r="A302" s="7" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C302" s="8" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="D302" s="8" t="s">
-        <v>843</v>
+        <v>227</v>
       </c>
       <c r="E302" s="8" t="s">
         <v>328</v>
@@ -13650,19 +13617,22 @@
         <v>30</v>
       </c>
       <c r="J302" s="8" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="K302" t="s">
         <v>19</v>
       </c>
       <c r="L302" t="s">
-        <v>134</v>
+        <v>31</v>
+      </c>
+      <c r="M302" t="s">
+        <v>217</v>
       </c>
       <c r="N302" t="s">
         <v>21</v>
       </c>
       <c r="Q302" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="S302" s="10" t="s">
         <v>334</v>
@@ -13670,16 +13640,16 @@
     </row>
     <row r="304" spans="1:19">
       <c r="A304" s="7" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C304" s="8" t="s">
-        <v>197</v>
+        <v>244</v>
       </c>
       <c r="D304" s="8" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="E304" s="8" t="s">
         <v>328</v>
@@ -13697,7 +13667,7 @@
         <v>30</v>
       </c>
       <c r="J304" s="8" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="K304" t="s">
         <v>19</v>
@@ -13706,7 +13676,7 @@
         <v>31</v>
       </c>
       <c r="M304" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="N304" t="s">
         <v>21</v>
@@ -13720,16 +13690,16 @@
     </row>
     <row r="306" spans="1:19">
       <c r="A306" s="7" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="C306" s="8" t="s">
-        <v>244</v>
+        <v>102</v>
       </c>
       <c r="D306" s="8" t="s">
-        <v>245</v>
+        <v>103</v>
       </c>
       <c r="E306" s="8" t="s">
         <v>328</v>
@@ -13747,7 +13717,7 @@
         <v>30</v>
       </c>
       <c r="J306" s="8" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="K306" t="s">
         <v>19</v>
@@ -13756,7 +13726,7 @@
         <v>31</v>
       </c>
       <c r="M306" t="s">
-        <v>238</v>
+        <v>96</v>
       </c>
       <c r="N306" t="s">
         <v>21</v>
@@ -13770,31 +13740,31 @@
     </row>
     <row r="308" spans="1:19">
       <c r="A308" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="B308" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="C308" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="D308" s="8" t="s">
         <v>850</v>
       </c>
-      <c r="B308" s="7" t="s">
+      <c r="E308" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="F308" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="G308" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="H308" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="I308" s="8" t="s">
         <v>851</v>
-      </c>
-      <c r="C308" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D308" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E308" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="F308" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="G308" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="H308" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="I308" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="J308" s="8" t="s">
         <v>852</v>
@@ -13806,10 +13776,10 @@
         <v>31</v>
       </c>
       <c r="M308" t="s">
-        <v>96</v>
+        <v>382</v>
       </c>
       <c r="N308" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="Q308" s="8" t="s">
         <v>333</v>
@@ -13844,10 +13814,10 @@
         <v>329</v>
       </c>
       <c r="I310" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="J310" s="8" t="s">
         <v>857</v>
-      </c>
-      <c r="J310" s="8" t="s">
-        <v>858</v>
       </c>
       <c r="K310" t="s">
         <v>19</v>
@@ -13856,7 +13826,7 @@
         <v>31</v>
       </c>
       <c r="M310" t="s">
-        <v>382</v>
+        <v>858</v>
       </c>
       <c r="N310" t="s">
         <v>32</v>
@@ -13894,7 +13864,7 @@
         <v>329</v>
       </c>
       <c r="I312" s="8" t="s">
-        <v>232</v>
+        <v>30</v>
       </c>
       <c r="J312" s="8" t="s">
         <v>863</v>
@@ -13906,10 +13876,10 @@
         <v>31</v>
       </c>
       <c r="M312" t="s">
-        <v>864</v>
+        <v>494</v>
       </c>
       <c r="N312" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q312" s="8" t="s">
         <v>333</v>
@@ -13920,16 +13890,16 @@
     </row>
     <row r="314" spans="1:19">
       <c r="A314" s="7" t="s">
+        <v>864</v>
+      </c>
+      <c r="B314" s="7" t="s">
         <v>865</v>
       </c>
-      <c r="B314" s="7" t="s">
+      <c r="C314" s="8" t="s">
         <v>866</v>
       </c>
-      <c r="C314" s="8" t="s">
-        <v>867</v>
-      </c>
       <c r="D314" s="8" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="E314" s="8" t="s">
         <v>328</v>
@@ -13947,7 +13917,7 @@
         <v>30</v>
       </c>
       <c r="J314" s="8" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="K314" t="s">
         <v>19</v>
@@ -13970,34 +13940,34 @@
     </row>
     <row r="316" spans="1:19">
       <c r="A316" s="7" t="s">
+        <v>868</v>
+      </c>
+      <c r="B316" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="C316" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D316" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E316" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="F316" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="G316" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="H316" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="I316" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="J316" s="8" t="s">
         <v>870</v>
-      </c>
-      <c r="B316" s="7" t="s">
-        <v>871</v>
-      </c>
-      <c r="C316" s="8" t="s">
-        <v>872</v>
-      </c>
-      <c r="D316" s="8" t="s">
-        <v>868</v>
-      </c>
-      <c r="E316" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="F316" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="G316" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="H316" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="I316" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J316" s="8" t="s">
-        <v>873</v>
       </c>
       <c r="K316" t="s">
         <v>19</v>
@@ -14006,10 +13976,10 @@
         <v>31</v>
       </c>
       <c r="M316" t="s">
-        <v>494</v>
+        <v>217</v>
       </c>
       <c r="N316" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="Q316" s="8" t="s">
         <v>333</v>
@@ -14020,16 +13990,16 @@
     </row>
     <row r="318" spans="1:19">
       <c r="A318" s="7" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C318" s="8" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="D318" s="8" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="E318" s="8" t="s">
         <v>328</v>
@@ -14044,10 +14014,10 @@
         <v>329</v>
       </c>
       <c r="I318" s="8" t="s">
-        <v>232</v>
+        <v>30</v>
       </c>
       <c r="J318" s="8" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="K318" t="s">
         <v>19</v>
@@ -14056,65 +14026,15 @@
         <v>31</v>
       </c>
       <c r="M318" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="N318" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="Q318" s="8" t="s">
         <v>333</v>
       </c>
       <c r="S318" s="10" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="320" spans="1:19">
-      <c r="A320" s="7" t="s">
-        <v>877</v>
-      </c>
-      <c r="B320" s="7" t="s">
-        <v>878</v>
-      </c>
-      <c r="C320" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D320" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="E320" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="F320" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="G320" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="H320" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="I320" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J320" s="8" t="s">
-        <v>879</v>
-      </c>
-      <c r="K320" t="s">
-        <v>19</v>
-      </c>
-      <c r="L320" t="s">
-        <v>31</v>
-      </c>
-      <c r="M320" t="s">
-        <v>20</v>
-      </c>
-      <c r="N320" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q320" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="S320" s="10" t="s">
         <v>334</v>
       </c>
     </row>
@@ -14442,8 +14362,6 @@
     <hyperlink ref="B316" r:id="rId320"/>
     <hyperlink ref="A318" r:id="rId321"/>
     <hyperlink ref="B318" r:id="rId322"/>
-    <hyperlink ref="A320" r:id="rId323"/>
-    <hyperlink ref="B320" r:id="rId324"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14451,7 +14369,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14524,7 +14442,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="7" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>336</v>
@@ -14548,13 +14466,13 @@
         <v>329</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="K2" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="L2" t="s">
         <v>31</v>
@@ -14568,7 +14486,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="7" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>339</v>
@@ -14592,13 +14510,13 @@
         <v>329</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="K4" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="L4" t="s">
         <v>31</v>
@@ -14612,7 +14530,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="7" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>372</v>
@@ -14636,13 +14554,13 @@
         <v>329</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="K6" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="L6" t="s">
         <v>31</v>
@@ -14656,7 +14574,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="7" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>424</v>
@@ -14680,10 +14598,10 @@
         <v>329</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="K8" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="L8" t="s">
         <v>31</v>
@@ -14697,7 +14615,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="7" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>427</v>
@@ -14721,10 +14639,10 @@
         <v>329</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="K10" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="L10" t="s">
         <v>31</v>
@@ -14738,7 +14656,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="7" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>431</v>
@@ -14762,13 +14680,13 @@
         <v>329</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="K12" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="L12" t="s">
         <v>18</v>
@@ -14782,7 +14700,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="7" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>433</v>
@@ -14806,13 +14724,13 @@
         <v>329</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="K14" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="L14" t="s">
         <v>18</v>
@@ -14826,7 +14744,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="7" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>439</v>
@@ -14850,13 +14768,13 @@
         <v>329</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="K16" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="L16" t="s">
         <v>31</v>
@@ -14870,7 +14788,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="7" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>481</v>
@@ -14894,10 +14812,10 @@
         <v>329</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="K18" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="L18" t="s">
         <v>31</v>
@@ -14911,7 +14829,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="7" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>496</v>
@@ -14935,13 +14853,13 @@
         <v>329</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="K20" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="L20" t="s">
         <v>31</v>
@@ -14955,22 +14873,22 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="7" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>548</v>
+        <v>571</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>146</v>
+        <v>572</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>894</v>
+        <v>328</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>895</v>
+        <v>329</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>328</v>
@@ -14979,36 +14897,36 @@
         <v>329</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>30</v>
+        <v>875</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>896</v>
+        <v>876</v>
       </c>
       <c r="K22" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="L22" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M22" t="s">
-        <v>250</v>
+        <v>746</v>
       </c>
       <c r="N22" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="7" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>571</v>
+        <v>622</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>572</v>
+        <v>623</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>573</v>
+        <v>624</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>328</v>
@@ -15023,19 +14941,16 @@
         <v>329</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>881</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="K24" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="L24" t="s">
         <v>31</v>
       </c>
       <c r="M24" t="s">
-        <v>746</v>
+        <v>678</v>
       </c>
       <c r="N24" t="s">
         <v>33</v>
@@ -15043,16 +14958,16 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="7" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>623</v>
+        <v>261</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>624</v>
+        <v>262</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>328</v>
@@ -15067,16 +14982,19 @@
         <v>329</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>881</v>
+        <v>875</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>876</v>
       </c>
       <c r="K26" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="L26" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="M26" t="s">
-        <v>678</v>
+        <v>250</v>
       </c>
       <c r="N26" t="s">
         <v>33</v>
@@ -15084,16 +15002,16 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="7" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>629</v>
+        <v>650</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>261</v>
+        <v>197</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>262</v>
+        <v>198</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>328</v>
@@ -15108,36 +15026,36 @@
         <v>329</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="K28" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="L28" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M28" t="s">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N28" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="7" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>650</v>
+        <v>687</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>197</v>
+        <v>688</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>198</v>
+        <v>689</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>328</v>
@@ -15152,65 +15070,21 @@
         <v>329</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="K30" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="L30" t="s">
         <v>31</v>
       </c>
       <c r="M30" t="s">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="N30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="7" t="s">
-        <v>901</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>688</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>689</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>881</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>882</v>
-      </c>
-      <c r="K32" t="s">
-        <v>883</v>
-      </c>
-      <c r="L32" t="s">
-        <v>31</v>
-      </c>
-      <c r="M32" t="s">
-        <v>60</v>
-      </c>
-      <c r="N32" t="s">
         <v>91</v>
       </c>
     </row>
@@ -15246,8 +15120,6 @@
     <hyperlink ref="B28" r:id="rId28"/>
     <hyperlink ref="A30" r:id="rId29"/>
     <hyperlink ref="B30" r:id="rId30"/>
-    <hyperlink ref="A32" r:id="rId31"/>
-    <hyperlink ref="B32" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel_reports/Mark_Abkemeier.xlsx
+++ b/excel_reports/Mark_Abkemeier.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2860" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2954" uniqueCount="794">
   <si>
     <t>Policy Record</t>
   </si>
@@ -156,6 +156,27 @@
     <t>Kristine</t>
   </si>
   <si>
+    <t>4053655200</t>
+  </si>
+  <si>
+    <t>24801001</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Ashcraft</t>
+  </si>
+  <si>
+    <t>AARP</t>
+  </si>
+  <si>
+    <t>11-30-2022</t>
+  </si>
+  <si>
+    <t>01-01-2023</t>
+  </si>
+  <si>
     <t>3265049408</t>
   </si>
   <si>
@@ -168,9 +189,6 @@
     <t>Baiter</t>
   </si>
   <si>
-    <t>AARP</t>
-  </si>
-  <si>
     <t>10-14-2022</t>
   </si>
   <si>
@@ -315,9 +333,6 @@
     <t>10-20-2022</t>
   </si>
   <si>
-    <t>01-01-2023</t>
-  </si>
-  <si>
     <t>3439693676</t>
   </si>
   <si>
@@ -984,6 +999,18 @@
     <t>110 - Submitted</t>
   </si>
   <si>
+    <t>4218738849</t>
+  </si>
+  <si>
+    <t>23621351</t>
+  </si>
+  <si>
+    <t>Donna</t>
+  </si>
+  <si>
+    <t>Morand</t>
+  </si>
+  <si>
     <t>3642018987</t>
   </si>
   <si>
@@ -1677,6 +1704,18 @@
     <t>UHC Dual Complete Choice (PPO D-SNP)</t>
   </si>
   <si>
+    <t>4202578789</t>
+  </si>
+  <si>
+    <t>24813601</t>
+  </si>
+  <si>
+    <t>Fanti</t>
+  </si>
+  <si>
+    <t>Dual Complete (HMO-POS D-SNP)</t>
+  </si>
+  <si>
     <t>4113507075</t>
   </si>
   <si>
@@ -1920,6 +1959,12 @@
     <t>410 - Cancelled</t>
   </si>
   <si>
+    <t>4200496012</t>
+  </si>
+  <si>
+    <t>24864401</t>
+  </si>
+  <si>
     <t>3168860422</t>
   </si>
   <si>
@@ -1950,6 +1995,24 @@
     <t>Medicare Advantage Choice Plan 3</t>
   </si>
   <si>
+    <t>3355620526</t>
+  </si>
+  <si>
+    <t>16193301</t>
+  </si>
+  <si>
+    <t>Perry</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Josh</t>
+  </si>
+  <si>
+    <t>Musick</t>
+  </si>
+  <si>
     <t>3685694068</t>
   </si>
   <si>
@@ -2218,6 +2281,18 @@
   </si>
   <si>
     <t>3172404335</t>
+  </si>
+  <si>
+    <t>3828859816</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Seifert</t>
+  </si>
+  <si>
+    <t>AETNA DVH (Standard) 1500</t>
   </si>
   <si>
     <t>3172404320</t>
@@ -2729,12 +2804,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>739</v>
+        <v>764</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>740</v>
+        <v>765</v>
       </c>
       <c r="B2" s="2">
         <v>36</v>
@@ -2742,26 +2817,26 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>741</v>
+        <v>766</v>
       </c>
       <c r="B3" s="2">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>742</v>
+        <v>767</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>743</v>
+        <v>768</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>744</v>
+        <v>769</v>
       </c>
       <c r="B5" s="4">
         <f>B3+B4-B2</f>
@@ -2770,7 +2845,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>745</v>
+        <v>770</v>
       </c>
       <c r="B6" s="2">
         <v>-30</v>
@@ -2778,30 +2853,30 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>746</v>
+        <v>771</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>747</v>
+        <v>772</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>748</v>
+        <v>773</v>
       </c>
       <c r="B8" s="4">
         <f>SUM(B5:B7)</f>
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>749</v>
+        <v>774</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="B9" s="5">
         <f>MAX(0, B8*150)</f>
@@ -2810,12 +2885,12 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>751</v>
+        <v>776</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>752</v>
+        <v>777</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -2823,7 +2898,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>753</v>
+        <v>778</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -2831,20 +2906,20 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>754</v>
+        <v>779</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>755</v>
+        <v>780</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>768</v>
+        <v>793</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>756</v>
+        <v>781</v>
       </c>
       <c r="B17" s="5">
         <f>SUM(Core!T:T)</f>
@@ -2853,12 +2928,12 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>757</v>
+        <v>782</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>758</v>
+        <v>783</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -2866,15 +2941,15 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>759</v>
+        <v>784</v>
       </c>
       <c r="B21">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>760</v>
+        <v>785</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -2882,7 +2957,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>761</v>
+        <v>786</v>
       </c>
       <c r="B23">
         <f>-B20+B21+B22</f>
@@ -2891,7 +2966,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>762</v>
+        <v>787</v>
       </c>
       <c r="B24" s="5">
         <f>B23*50</f>
@@ -2900,17 +2975,17 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>763</v>
+        <v>788</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>764</v>
+        <v>789</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>765</v>
+        <v>790</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -2918,7 +2993,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>766</v>
+        <v>791</v>
       </c>
       <c r="B29">
         <f>-B26+B27+B28</f>
@@ -2927,7 +3002,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>767</v>
+        <v>792</v>
       </c>
       <c r="B30" s="5">
         <f>B29*100</f>
@@ -2941,7 +3016,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W318"/>
+  <dimension ref="A1:W328"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3219,7 +3294,7 @@
         <v>51</v>
       </c>
       <c r="N8" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q8" s="6" t="s">
         <v>35</v>
@@ -3230,16 +3305,16 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>27</v>
@@ -3254,7 +3329,7 @@
         <v>28</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>30</v>
@@ -3266,10 +3341,10 @@
         <v>32</v>
       </c>
       <c r="M10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N10" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q10" s="6" t="s">
         <v>35</v>
@@ -3316,10 +3391,10 @@
         <v>32</v>
       </c>
       <c r="M12" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="N12" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>35</v>
@@ -3330,16 +3405,16 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>27</v>
@@ -3380,16 +3455,16 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>27</v>
@@ -3416,10 +3491,10 @@
         <v>32</v>
       </c>
       <c r="M16" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="N16" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="Q16" s="6" t="s">
         <v>35</v>
@@ -3430,16 +3505,16 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>27</v>
@@ -3454,7 +3529,7 @@
         <v>28</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>30</v>
@@ -3466,10 +3541,10 @@
         <v>32</v>
       </c>
       <c r="M18" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="N18" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="Q18" s="6" t="s">
         <v>35</v>
@@ -3480,16 +3555,16 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>27</v>
@@ -3516,10 +3591,10 @@
         <v>32</v>
       </c>
       <c r="M20" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="N20" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="6" t="s">
         <v>35</v>
@@ -3530,16 +3605,16 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>27</v>
@@ -3554,7 +3629,7 @@
         <v>28</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>30</v>
@@ -3566,10 +3641,10 @@
         <v>32</v>
       </c>
       <c r="M22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N22" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="Q22" s="6" t="s">
         <v>35</v>
@@ -3580,16 +3655,16 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>27</v>
@@ -3604,7 +3679,7 @@
         <v>28</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>30</v>
@@ -3616,10 +3691,10 @@
         <v>32</v>
       </c>
       <c r="M24" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="N24" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="Q24" s="6" t="s">
         <v>35</v>
@@ -3630,16 +3705,16 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>27</v>
@@ -3666,10 +3741,10 @@
         <v>32</v>
       </c>
       <c r="M26" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="N26" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="Q26" s="6" t="s">
         <v>35</v>
@@ -3680,13 +3755,13 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>96</v>
@@ -3704,7 +3779,7 @@
         <v>28</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="J28" s="6" t="s">
         <v>30</v>
@@ -3716,10 +3791,10 @@
         <v>32</v>
       </c>
       <c r="M28" t="s">
+        <v>97</v>
+      </c>
+      <c r="N28" t="s">
         <v>98</v>
-      </c>
-      <c r="N28" t="s">
-        <v>99</v>
       </c>
       <c r="Q28" s="6" t="s">
         <v>35</v>
@@ -3730,31 +3805,31 @@
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="C30" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="E30" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="J30" s="6" t="s">
         <v>30</v>
@@ -3769,7 +3844,7 @@
         <v>104</v>
       </c>
       <c r="N30" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="Q30" s="6" t="s">
         <v>35</v>
@@ -3804,7 +3879,7 @@
         <v>28</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J32" s="6" t="s">
         <v>30</v>
@@ -3816,10 +3891,10 @@
         <v>32</v>
       </c>
       <c r="M32" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="N32" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q32" s="6" t="s">
         <v>35</v>
@@ -3830,16 +3905,16 @@
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>27</v>
@@ -3866,10 +3941,10 @@
         <v>32</v>
       </c>
       <c r="M34" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="N34" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="Q34" s="6" t="s">
         <v>35</v>
@@ -3904,7 +3979,7 @@
         <v>28</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J36" s="6" t="s">
         <v>30</v>
@@ -3919,7 +3994,7 @@
         <v>118</v>
       </c>
       <c r="N36" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="Q36" s="6" t="s">
         <v>35</v>
@@ -3989,7 +4064,7 @@
         <v>126</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>27</v>
@@ -4016,10 +4091,10 @@
         <v>32</v>
       </c>
       <c r="M40" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N40" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="Q40" s="6" t="s">
         <v>35</v>
@@ -4030,16 +4105,16 @@
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>27</v>
@@ -4116,10 +4191,10 @@
         <v>32</v>
       </c>
       <c r="M44" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="N44" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="Q44" s="6" t="s">
         <v>35</v>
@@ -4130,16 +4205,16 @@
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>27</v>
@@ -4166,10 +4241,10 @@
         <v>32</v>
       </c>
       <c r="M46" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="N46" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="Q46" s="6" t="s">
         <v>35</v>
@@ -4219,7 +4294,7 @@
         <v>146</v>
       </c>
       <c r="N48" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="Q48" s="6" t="s">
         <v>35</v>
@@ -4266,10 +4341,10 @@
         <v>32</v>
       </c>
       <c r="M50" t="s">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="N50" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="Q50" s="6" t="s">
         <v>35</v>
@@ -4280,16 +4355,16 @@
     </row>
     <row r="52" spans="1:19">
       <c r="A52" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>27</v>
@@ -4316,7 +4391,7 @@
         <v>32</v>
       </c>
       <c r="M52" t="s">
-        <v>154</v>
+        <v>57</v>
       </c>
       <c r="N52" t="s">
         <v>34</v>
@@ -4330,17 +4405,17 @@
     </row>
     <row r="54" spans="1:19">
       <c r="A54" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B54" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>158</v>
-      </c>
       <c r="E54" s="6" t="s">
         <v>27</v>
       </c>
@@ -4354,7 +4429,7 @@
         <v>28</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J54" s="6" t="s">
         <v>30</v>
@@ -4366,10 +4441,10 @@
         <v>32</v>
       </c>
       <c r="M54" t="s">
-        <v>69</v>
+        <v>159</v>
       </c>
       <c r="N54" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="Q54" s="6" t="s">
         <v>35</v>
@@ -4380,16 +4455,16 @@
     </row>
     <row r="56" spans="1:19">
       <c r="A56" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>27</v>
@@ -4416,10 +4491,10 @@
         <v>32</v>
       </c>
       <c r="M56" t="s">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="N56" t="s">
-        <v>164</v>
+        <v>52</v>
       </c>
       <c r="Q56" s="6" t="s">
         <v>35</v>
@@ -4430,16 +4505,16 @@
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B58" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="C58" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="D58" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>27</v>
@@ -4466,10 +4541,10 @@
         <v>32</v>
       </c>
       <c r="M58" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="N58" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q58" s="6" t="s">
         <v>35</v>
@@ -4480,16 +4555,16 @@
     </row>
     <row r="60" spans="1:19">
       <c r="A60" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>27</v>
@@ -4504,7 +4579,7 @@
         <v>28</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J60" s="6" t="s">
         <v>30</v>
@@ -4516,10 +4591,10 @@
         <v>32</v>
       </c>
       <c r="M60" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="N60" t="s">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="Q60" s="6" t="s">
         <v>35</v>
@@ -4530,13 +4605,13 @@
     </row>
     <row r="62" spans="1:19">
       <c r="A62" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>174</v>
+        <v>39</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>175</v>
@@ -4566,7 +4641,7 @@
         <v>32</v>
       </c>
       <c r="M62" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="N62" t="s">
         <v>34</v>
@@ -4580,16 +4655,16 @@
     </row>
     <row r="64" spans="1:19">
       <c r="A64" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>27</v>
@@ -4616,7 +4691,7 @@
         <v>32</v>
       </c>
       <c r="M64" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="N64" t="s">
         <v>34</v>
@@ -4669,7 +4744,7 @@
         <v>185</v>
       </c>
       <c r="N66" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="Q66" s="6" t="s">
         <v>35</v>
@@ -4689,7 +4764,7 @@
         <v>188</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>27</v>
@@ -4716,10 +4791,10 @@
         <v>32</v>
       </c>
       <c r="M68" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="N68" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="Q68" s="6" t="s">
         <v>35</v>
@@ -4730,16 +4805,16 @@
     </row>
     <row r="70" spans="1:19">
       <c r="A70" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>27</v>
@@ -4766,10 +4841,10 @@
         <v>32</v>
       </c>
       <c r="M70" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q70" s="6" t="s">
         <v>35</v>
@@ -4804,10 +4879,10 @@
         <v>28</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="K72" t="s">
         <v>31</v>
@@ -4816,10 +4891,10 @@
         <v>32</v>
       </c>
       <c r="M72" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="N72" t="s">
-        <v>164</v>
+        <v>52</v>
       </c>
       <c r="Q72" s="6" t="s">
         <v>35</v>
@@ -4854,10 +4929,10 @@
         <v>28</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>30</v>
+        <v>203</v>
       </c>
       <c r="K74" t="s">
         <v>31</v>
@@ -4866,10 +4941,10 @@
         <v>32</v>
       </c>
       <c r="M74" t="s">
-        <v>203</v>
+        <v>33</v>
       </c>
       <c r="N74" t="s">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c r="Q74" s="6" t="s">
         <v>35</v>
@@ -4904,7 +4979,7 @@
         <v>28</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J76" s="6" t="s">
         <v>30</v>
@@ -4916,10 +4991,10 @@
         <v>32</v>
       </c>
       <c r="M76" t="s">
-        <v>33</v>
+        <v>208</v>
       </c>
       <c r="N76" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="Q76" s="6" t="s">
         <v>35</v>
@@ -4930,16 +5005,16 @@
     </row>
     <row r="78" spans="1:19">
       <c r="A78" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>27</v>
@@ -4963,86 +5038,86 @@
         <v>31</v>
       </c>
       <c r="L78" t="s">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="M78" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N78" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q78" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S78" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19">
+      <c r="A80" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J80" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K80" t="s">
+        <v>31</v>
+      </c>
+      <c r="L80" t="s">
+        <v>217</v>
+      </c>
+      <c r="M80" t="s">
+        <v>62</v>
+      </c>
+      <c r="N80" t="s">
         <v>42</v>
       </c>
-      <c r="P78" t="s">
+      <c r="P80" t="s">
         <v>33</v>
       </c>
-      <c r="Q78" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="R78" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19">
-      <c r="A79" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I79" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J79" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K79" t="s">
-        <v>31</v>
-      </c>
-      <c r="L79" t="s">
-        <v>32</v>
-      </c>
-      <c r="M79" t="s">
-        <v>56</v>
-      </c>
-      <c r="N79" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q79" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="S79" s="7" t="s">
-        <v>36</v>
+      <c r="Q80" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R80" s="6" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="81" spans="1:19">
       <c r="A81" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="D81" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>27</v>
@@ -5069,10 +5144,10 @@
         <v>32</v>
       </c>
       <c r="M81" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="N81" t="s">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="Q81" s="6" t="s">
         <v>35</v>
@@ -5083,16 +5158,16 @@
     </row>
     <row r="83" spans="1:19">
       <c r="A83" s="9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>27</v>
@@ -5107,7 +5182,7 @@
         <v>28</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J83" s="6" t="s">
         <v>30</v>
@@ -5119,10 +5194,10 @@
         <v>32</v>
       </c>
       <c r="M83" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="N83" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="Q83" s="6" t="s">
         <v>35</v>
@@ -5133,16 +5208,16 @@
     </row>
     <row r="85" spans="1:19">
       <c r="A85" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>201</v>
+        <v>82</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>27</v>
@@ -5169,10 +5244,10 @@
         <v>32</v>
       </c>
       <c r="M85" t="s">
-        <v>224</v>
+        <v>75</v>
       </c>
       <c r="N85" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="Q85" s="6" t="s">
         <v>35</v>
@@ -5183,13 +5258,13 @@
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>228</v>
@@ -5207,7 +5282,7 @@
         <v>28</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J87" s="6" t="s">
         <v>30</v>
@@ -5222,7 +5297,7 @@
         <v>229</v>
       </c>
       <c r="N87" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="Q87" s="6" t="s">
         <v>35</v>
@@ -5257,7 +5332,7 @@
         <v>28</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J89" s="6" t="s">
         <v>30</v>
@@ -5266,77 +5341,77 @@
         <v>31</v>
       </c>
       <c r="L89" t="s">
+        <v>32</v>
+      </c>
+      <c r="M89" t="s">
         <v>234</v>
       </c>
-      <c r="M89" t="s">
+      <c r="N89" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q89" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S89" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19">
+      <c r="A91" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="N89" t="s">
-        <v>99</v>
-      </c>
-      <c r="O89" t="s">
+      <c r="B91" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="P89" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q89" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R89" s="6" t="s">
+      <c r="C91" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="S89" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19">
-      <c r="A90" s="9" t="s">
+      <c r="D91" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="B90" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H90" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I90" s="6" t="s">
+      <c r="E91" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J91" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K91" t="s">
+        <v>31</v>
+      </c>
+      <c r="L91" t="s">
         <v>239</v>
       </c>
-      <c r="J90" s="6" t="s">
+      <c r="M91" t="s">
         <v>240</v>
       </c>
-      <c r="K90" t="s">
+      <c r="N91" t="s">
+        <v>52</v>
+      </c>
+      <c r="O91" t="s">
         <v>241</v>
       </c>
-      <c r="L90" t="s">
-        <v>32</v>
-      </c>
-      <c r="M90" t="s">
+      <c r="P91" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q91" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R91" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="N90" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q90" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="S90" s="7" t="s">
+      <c r="S91" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5345,43 +5420,43 @@
         <v>243</v>
       </c>
       <c r="B92" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I92" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="J92" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D92" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H92" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I92" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J92" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="K92" t="s">
-        <v>31</v>
+        <v>246</v>
       </c>
       <c r="L92" t="s">
         <v>32</v>
       </c>
       <c r="M92" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N92" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="Q92" s="6" t="s">
         <v>35</v>
@@ -5392,16 +5467,16 @@
     </row>
     <row r="94" spans="1:19">
       <c r="A94" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>27</v>
@@ -5419,7 +5494,7 @@
         <v>50</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="K94" t="s">
         <v>31</v>
@@ -5428,10 +5503,10 @@
         <v>32</v>
       </c>
       <c r="M94" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N94" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="Q94" s="6" t="s">
         <v>35</v>
@@ -5442,16 +5517,16 @@
     </row>
     <row r="96" spans="1:19">
       <c r="A96" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B96" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="C96" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="D96" s="6" t="s">
         <v>255</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>256</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>27</v>
@@ -5469,7 +5544,7 @@
         <v>50</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>30</v>
+        <v>256</v>
       </c>
       <c r="K96" t="s">
         <v>31</v>
@@ -5481,7 +5556,7 @@
         <v>257</v>
       </c>
       <c r="N96" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="Q96" s="6" t="s">
         <v>35</v>
@@ -5516,7 +5591,7 @@
         <v>28</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J98" s="6" t="s">
         <v>30</v>
@@ -5528,10 +5603,10 @@
         <v>32</v>
       </c>
       <c r="M98" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="N98" t="s">
-        <v>164</v>
+        <v>52</v>
       </c>
       <c r="Q98" s="6" t="s">
         <v>35</v>
@@ -5542,16 +5617,16 @@
     </row>
     <row r="100" spans="1:19">
       <c r="A100" s="9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>27</v>
@@ -5566,10 +5641,10 @@
         <v>28</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="K100" t="s">
         <v>31</v>
@@ -5578,10 +5653,10 @@
         <v>32</v>
       </c>
       <c r="M100" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="N100" t="s">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c r="Q100" s="6" t="s">
         <v>35</v>
@@ -5592,16 +5667,16 @@
     </row>
     <row r="102" spans="1:19">
       <c r="A102" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>27</v>
@@ -5619,7 +5694,7 @@
         <v>50</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="K102" t="s">
         <v>31</v>
@@ -5628,10 +5703,10 @@
         <v>32</v>
       </c>
       <c r="M102" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="N102" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="Q102" s="6" t="s">
         <v>35</v>
@@ -5642,16 +5717,16 @@
     </row>
     <row r="104" spans="1:19">
       <c r="A104" s="9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B104" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D104" s="6" t="s">
         <v>270</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>271</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>27</v>
@@ -5669,7 +5744,7 @@
         <v>50</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>30</v>
+        <v>203</v>
       </c>
       <c r="K104" t="s">
         <v>31</v>
@@ -5678,10 +5753,10 @@
         <v>32</v>
       </c>
       <c r="M104" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="N104" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="Q104" s="6" t="s">
         <v>35</v>
@@ -5692,13 +5767,13 @@
     </row>
     <row r="106" spans="1:19">
       <c r="A106" s="9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>275</v>
+        <v>112</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>276</v>
@@ -5731,7 +5806,7 @@
         <v>277</v>
       </c>
       <c r="N106" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="Q106" s="6" t="s">
         <v>35</v>
@@ -5748,10 +5823,10 @@
         <v>279</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>27</v>
@@ -5766,10 +5841,10 @@
         <v>28</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>281</v>
+        <v>30</v>
       </c>
       <c r="K108" t="s">
         <v>31</v>
@@ -5781,7 +5856,7 @@
         <v>282</v>
       </c>
       <c r="N108" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="Q108" s="6" t="s">
         <v>35</v>
@@ -5798,10 +5873,10 @@
         <v>284</v>
       </c>
       <c r="C110" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D110" s="6" t="s">
         <v>285</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>286</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>27</v>
@@ -5819,7 +5894,7 @@
         <v>40</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>30</v>
+        <v>286</v>
       </c>
       <c r="K110" t="s">
         <v>31</v>
@@ -5828,10 +5903,10 @@
         <v>32</v>
       </c>
       <c r="M110" t="s">
-        <v>180</v>
+        <v>287</v>
       </c>
       <c r="N110" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="Q110" s="6" t="s">
         <v>35</v>
@@ -5842,16 +5917,16 @@
     </row>
     <row r="112" spans="1:19">
       <c r="A112" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E112" s="6" t="s">
         <v>27</v>
@@ -5866,7 +5941,7 @@
         <v>28</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J112" s="6" t="s">
         <v>30</v>
@@ -5878,10 +5953,10 @@
         <v>32</v>
       </c>
       <c r="M112" t="s">
-        <v>291</v>
+        <v>185</v>
       </c>
       <c r="N112" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="Q112" s="6" t="s">
         <v>35</v>
@@ -5916,7 +5991,7 @@
         <v>28</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J114" s="6" t="s">
         <v>30</v>
@@ -5931,7 +6006,7 @@
         <v>296</v>
       </c>
       <c r="N114" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="Q114" s="6" t="s">
         <v>35</v>
@@ -5966,7 +6041,7 @@
         <v>28</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J116" s="6" t="s">
         <v>30</v>
@@ -5978,7 +6053,7 @@
         <v>32</v>
       </c>
       <c r="M116" t="s">
-        <v>41</v>
+        <v>301</v>
       </c>
       <c r="N116" t="s">
         <v>34</v>
@@ -5992,16 +6067,16 @@
     </row>
     <row r="118" spans="1:19">
       <c r="A118" s="9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E118" s="6" t="s">
         <v>27</v>
@@ -6016,7 +6091,7 @@
         <v>28</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J118" s="6" t="s">
         <v>30</v>
@@ -6028,10 +6103,10 @@
         <v>32</v>
       </c>
       <c r="M118" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="N118" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="Q118" s="6" t="s">
         <v>35</v>
@@ -6042,16 +6117,16 @@
     </row>
     <row r="120" spans="1:19">
       <c r="A120" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E120" s="6" t="s">
         <v>27</v>
@@ -6066,7 +6141,7 @@
         <v>28</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J120" s="6" t="s">
         <v>30</v>
@@ -6078,7 +6153,7 @@
         <v>32</v>
       </c>
       <c r="M120" t="s">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="N120" t="s">
         <v>42</v>
@@ -6092,16 +6167,16 @@
     </row>
     <row r="122" spans="1:19">
       <c r="A122" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>107</v>
+        <v>312</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E122" s="6" t="s">
         <v>27</v>
@@ -6128,10 +6203,10 @@
         <v>32</v>
       </c>
       <c r="M122" t="s">
-        <v>312</v>
+        <v>123</v>
       </c>
       <c r="N122" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="Q122" s="6" t="s">
         <v>35</v>
@@ -6142,13 +6217,13 @@
     </row>
     <row r="124" spans="1:19">
       <c r="A124" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>315</v>
+        <v>112</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>316</v>
@@ -6178,10 +6253,10 @@
         <v>32</v>
       </c>
       <c r="M124" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="N124" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="Q124" s="6" t="s">
         <v>35</v>
@@ -6192,16 +6267,16 @@
     </row>
     <row r="126" spans="1:19">
       <c r="A126" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E126" s="6" t="s">
         <v>27</v>
@@ -6216,7 +6291,7 @@
         <v>28</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J126" s="6" t="s">
         <v>30</v>
@@ -6225,16 +6300,16 @@
         <v>31</v>
       </c>
       <c r="L126" t="s">
-        <v>321</v>
+        <v>32</v>
       </c>
       <c r="M126" t="s">
-        <v>203</v>
+        <v>301</v>
       </c>
       <c r="N126" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="Q126" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S126" s="7" t="s">
         <v>36</v>
@@ -6266,7 +6341,7 @@
         <v>28</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J128" s="6" t="s">
         <v>30</v>
@@ -6275,16 +6350,16 @@
         <v>31</v>
       </c>
       <c r="L128" t="s">
-        <v>32</v>
+        <v>326</v>
       </c>
       <c r="M128" t="s">
-        <v>277</v>
+        <v>208</v>
       </c>
       <c r="N128" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="Q128" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S128" s="7" t="s">
         <v>36</v>
@@ -6292,16 +6367,16 @@
     </row>
     <row r="130" spans="1:19">
       <c r="A130" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E130" s="6" t="s">
         <v>27</v>
@@ -6316,7 +6391,7 @@
         <v>28</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J130" s="6" t="s">
         <v>30</v>
@@ -6328,10 +6403,10 @@
         <v>32</v>
       </c>
       <c r="M130" t="s">
-        <v>272</v>
+        <v>51</v>
       </c>
       <c r="N130" t="s">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="Q130" s="6" t="s">
         <v>35</v>
@@ -6342,16 +6417,16 @@
     </row>
     <row r="132" spans="1:19">
       <c r="A132" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="E132" s="6" t="s">
         <v>27</v>
@@ -6366,7 +6441,7 @@
         <v>28</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J132" s="6" t="s">
         <v>30</v>
@@ -6378,10 +6453,10 @@
         <v>32</v>
       </c>
       <c r="M132" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="N132" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="Q132" s="6" t="s">
         <v>35</v>
@@ -6392,16 +6467,16 @@
     </row>
     <row r="134" spans="1:19">
       <c r="A134" s="9" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>334</v>
+        <v>280</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E134" s="6" t="s">
         <v>27</v>
@@ -6425,25 +6500,16 @@
         <v>31</v>
       </c>
       <c r="L134" t="s">
-        <v>234</v>
+        <v>32</v>
       </c>
       <c r="M134" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="N134" t="s">
         <v>42</v>
       </c>
-      <c r="O134" t="s">
-        <v>336</v>
-      </c>
-      <c r="P134" t="s">
-        <v>336</v>
-      </c>
       <c r="Q134" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R134" s="6" t="s">
-        <v>337</v>
+        <v>35</v>
       </c>
       <c r="S134" s="7" t="s">
         <v>36</v>
@@ -6457,10 +6523,10 @@
         <v>339</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>153</v>
+        <v>340</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E136" s="6" t="s">
         <v>27</v>
@@ -6490,7 +6556,7 @@
         <v>277</v>
       </c>
       <c r="N136" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="Q136" s="6" t="s">
         <v>35</v>
@@ -6507,10 +6573,10 @@
         <v>342</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E138" s="6" t="s">
         <v>27</v>
@@ -6525,7 +6591,7 @@
         <v>28</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J138" s="6" t="s">
         <v>30</v>
@@ -6534,16 +6600,25 @@
         <v>31</v>
       </c>
       <c r="L138" t="s">
-        <v>32</v>
+        <v>239</v>
       </c>
       <c r="M138" t="s">
-        <v>33</v>
+        <v>277</v>
       </c>
       <c r="N138" t="s">
-        <v>164</v>
+        <v>42</v>
+      </c>
+      <c r="O138" t="s">
+        <v>345</v>
+      </c>
+      <c r="P138" t="s">
+        <v>345</v>
       </c>
       <c r="Q138" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="R138" s="6" t="s">
+        <v>346</v>
       </c>
       <c r="S138" s="7" t="s">
         <v>36</v>
@@ -6551,16 +6626,16 @@
     </row>
     <row r="140" spans="1:19">
       <c r="A140" s="9" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>346</v>
+        <v>158</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E140" s="6" t="s">
         <v>27</v>
@@ -6587,10 +6662,10 @@
         <v>32</v>
       </c>
       <c r="M140" t="s">
-        <v>91</v>
+        <v>282</v>
       </c>
       <c r="N140" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="Q140" s="6" t="s">
         <v>35</v>
@@ -6601,16 +6676,16 @@
     </row>
     <row r="142" spans="1:19">
       <c r="A142" s="9" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E142" s="6" t="s">
         <v>27</v>
@@ -6625,7 +6700,7 @@
         <v>28</v>
       </c>
       <c r="I142" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J142" s="6" t="s">
         <v>30</v>
@@ -6637,10 +6712,10 @@
         <v>32</v>
       </c>
       <c r="M142" t="s">
-        <v>193</v>
+        <v>33</v>
       </c>
       <c r="N142" t="s">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c r="Q142" s="6" t="s">
         <v>35</v>
@@ -6651,16 +6726,16 @@
     </row>
     <row r="144" spans="1:19">
       <c r="A144" s="9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E144" s="6" t="s">
         <v>27</v>
@@ -6675,7 +6750,7 @@
         <v>28</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J144" s="6" t="s">
         <v>30</v>
@@ -6687,10 +6762,10 @@
         <v>32</v>
       </c>
       <c r="M144" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N144" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="Q144" s="6" t="s">
         <v>35</v>
@@ -6701,16 +6776,16 @@
     </row>
     <row r="146" spans="1:19">
       <c r="A146" s="9" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E146" s="6" t="s">
         <v>27</v>
@@ -6737,10 +6812,10 @@
         <v>32</v>
       </c>
       <c r="M146" t="s">
-        <v>359</v>
+        <v>198</v>
       </c>
       <c r="N146" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="Q146" s="6" t="s">
         <v>35</v>
@@ -6751,16 +6826,16 @@
     </row>
     <row r="148" spans="1:19">
       <c r="A148" s="9" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="E148" s="6" t="s">
         <v>27</v>
@@ -6775,7 +6850,7 @@
         <v>28</v>
       </c>
       <c r="I148" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J148" s="6" t="s">
         <v>30</v>
@@ -6787,10 +6862,10 @@
         <v>32</v>
       </c>
       <c r="M148" t="s">
-        <v>359</v>
+        <v>168</v>
       </c>
       <c r="N148" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="Q148" s="6" t="s">
         <v>35</v>
@@ -6801,16 +6876,16 @@
     </row>
     <row r="150" spans="1:19">
       <c r="A150" s="9" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>153</v>
+        <v>366</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E150" s="6" t="s">
         <v>27</v>
@@ -6825,7 +6900,7 @@
         <v>28</v>
       </c>
       <c r="I150" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J150" s="6" t="s">
         <v>30</v>
@@ -6837,10 +6912,10 @@
         <v>32</v>
       </c>
       <c r="M150" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="N150" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="Q150" s="6" t="s">
         <v>35</v>
@@ -6851,16 +6926,16 @@
     </row>
     <row r="152" spans="1:19">
       <c r="A152" s="9" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B152" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D152" s="6" t="s">
         <v>367</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="D152" s="6" t="s">
-        <v>369</v>
       </c>
       <c r="E152" s="6" t="s">
         <v>27</v>
@@ -6887,10 +6962,10 @@
         <v>32</v>
       </c>
       <c r="M152" t="s">
-        <v>272</v>
+        <v>368</v>
       </c>
       <c r="N152" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="Q152" s="6" t="s">
         <v>35</v>
@@ -6901,13 +6976,13 @@
     </row>
     <row r="154" spans="1:19">
       <c r="A154" s="9" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>372</v>
+        <v>158</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>373</v>
@@ -6937,10 +7012,10 @@
         <v>32</v>
       </c>
       <c r="M154" t="s">
-        <v>203</v>
+        <v>374</v>
       </c>
       <c r="N154" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="Q154" s="6" t="s">
         <v>35</v>
@@ -6951,16 +7026,16 @@
     </row>
     <row r="156" spans="1:19">
       <c r="A156" s="9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>331</v>
+        <v>377</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="E156" s="6" t="s">
         <v>27</v>
@@ -6975,7 +7050,7 @@
         <v>28</v>
       </c>
       <c r="I156" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J156" s="6" t="s">
         <v>30</v>
@@ -6987,10 +7062,10 @@
         <v>32</v>
       </c>
       <c r="M156" t="s">
-        <v>113</v>
+        <v>277</v>
       </c>
       <c r="N156" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="Q156" s="6" t="s">
         <v>35</v>
@@ -7001,16 +7076,16 @@
     </row>
     <row r="158" spans="1:19">
       <c r="A158" s="9" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E158" s="6" t="s">
         <v>27</v>
@@ -7037,10 +7112,10 @@
         <v>32</v>
       </c>
       <c r="M158" t="s">
-        <v>380</v>
+        <v>208</v>
       </c>
       <c r="N158" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="Q158" s="6" t="s">
         <v>35</v>
@@ -7051,16 +7126,16 @@
     </row>
     <row r="160" spans="1:19">
       <c r="A160" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B160" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D160" s="6" t="s">
         <v>382</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D160" s="6" t="s">
-        <v>383</v>
       </c>
       <c r="E160" s="6" t="s">
         <v>27</v>
@@ -7087,10 +7162,10 @@
         <v>32</v>
       </c>
       <c r="M160" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="N160" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="Q160" s="6" t="s">
         <v>35</v>
@@ -7101,16 +7176,16 @@
     </row>
     <row r="162" spans="1:19">
       <c r="A162" s="9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E162" s="6" t="s">
         <v>27</v>
@@ -7137,10 +7212,10 @@
         <v>32</v>
       </c>
       <c r="M162" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N162" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="Q162" s="6" t="s">
         <v>35</v>
@@ -7151,13 +7226,13 @@
     </row>
     <row r="164" spans="1:19">
       <c r="A164" s="9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>391</v>
+        <v>70</v>
       </c>
       <c r="D164" s="6" t="s">
         <v>392</v>
@@ -7184,19 +7259,16 @@
         <v>31</v>
       </c>
       <c r="L164" t="s">
-        <v>234</v>
+        <v>32</v>
+      </c>
+      <c r="M164" t="s">
+        <v>75</v>
       </c>
       <c r="N164" t="s">
         <v>34</v>
       </c>
-      <c r="O164" t="s">
-        <v>359</v>
-      </c>
-      <c r="P164" t="s">
-        <v>163</v>
-      </c>
       <c r="Q164" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S164" s="7" t="s">
         <v>36</v>
@@ -7210,10 +7282,10 @@
         <v>394</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>294</v>
+        <v>395</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E166" s="6" t="s">
         <v>27</v>
@@ -7228,7 +7300,7 @@
         <v>28</v>
       </c>
       <c r="I166" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J166" s="6" t="s">
         <v>30</v>
@@ -7240,10 +7312,10 @@
         <v>32</v>
       </c>
       <c r="M166" t="s">
-        <v>180</v>
+        <v>397</v>
       </c>
       <c r="N166" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q166" s="6" t="s">
         <v>35</v>
@@ -7254,16 +7326,16 @@
     </row>
     <row r="168" spans="1:19">
       <c r="A168" s="9" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>76</v>
+        <v>400</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="E168" s="6" t="s">
         <v>27</v>
@@ -7278,7 +7350,7 @@
         <v>28</v>
       </c>
       <c r="I168" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J168" s="6" t="s">
         <v>30</v>
@@ -7287,16 +7359,19 @@
         <v>31</v>
       </c>
       <c r="L168" t="s">
-        <v>32</v>
-      </c>
-      <c r="M168" t="s">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="N168" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="O168" t="s">
+        <v>368</v>
+      </c>
+      <c r="P168" t="s">
+        <v>168</v>
       </c>
       <c r="Q168" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S168" s="7" t="s">
         <v>36</v>
@@ -7304,16 +7379,16 @@
     </row>
     <row r="170" spans="1:19">
       <c r="A170" s="9" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>400</v>
+        <v>299</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E170" s="6" t="s">
         <v>27</v>
@@ -7328,7 +7403,7 @@
         <v>28</v>
       </c>
       <c r="I170" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J170" s="6" t="s">
         <v>30</v>
@@ -7337,130 +7412,130 @@
         <v>31</v>
       </c>
       <c r="L170" t="s">
-        <v>402</v>
+        <v>32</v>
       </c>
       <c r="M170" t="s">
-        <v>403</v>
+        <v>185</v>
       </c>
       <c r="N170" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="Q170" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="171" spans="1:19">
-      <c r="A171" s="9" t="s">
+      <c r="S170" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19">
+      <c r="A172" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D172" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="B171" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="D171" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="E171" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F171" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G171" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H171" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I171" s="6" t="s">
+      <c r="E172" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F172" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G172" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H172" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I172" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J172" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K172" t="s">
+        <v>31</v>
+      </c>
+      <c r="L172" t="s">
+        <v>32</v>
+      </c>
+      <c r="M172" t="s">
+        <v>185</v>
+      </c>
+      <c r="N172" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q172" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S172" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19">
+      <c r="A174" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G174" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H174" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I174" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J171" s="6" t="s">
+      <c r="J174" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K171" t="s">
+      <c r="K174" t="s">
         <v>31</v>
       </c>
-      <c r="L171" t="s">
-        <v>32</v>
-      </c>
-      <c r="M171" t="s">
-        <v>405</v>
-      </c>
-      <c r="N171" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q171" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="S171" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="173" spans="1:19">
-      <c r="A173" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="B173" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="D173" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="E173" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F173" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G173" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H173" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I173" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J173" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K173" t="s">
-        <v>31</v>
-      </c>
-      <c r="L173" t="s">
-        <v>32</v>
-      </c>
-      <c r="M173" t="s">
-        <v>380</v>
-      </c>
-      <c r="N173" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q173" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="S173" s="7" t="s">
-        <v>36</v>
+      <c r="L174" t="s">
+        <v>411</v>
+      </c>
+      <c r="M174" t="s">
+        <v>412</v>
+      </c>
+      <c r="N174" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q174" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="175" spans="1:19">
       <c r="A175" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="D175" s="6" t="s">
         <v>410</v>
-      </c>
-      <c r="B175" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="C175" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="D175" s="6" t="s">
-        <v>413</v>
       </c>
       <c r="E175" s="6" t="s">
         <v>27</v>
@@ -7487,10 +7562,10 @@
         <v>32</v>
       </c>
       <c r="M175" t="s">
-        <v>98</v>
+        <v>414</v>
       </c>
       <c r="N175" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="Q175" s="6" t="s">
         <v>35</v>
@@ -7501,16 +7576,16 @@
     </row>
     <row r="177" spans="1:19">
       <c r="A177" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E177" s="6" t="s">
         <v>27</v>
@@ -7525,7 +7600,7 @@
         <v>28</v>
       </c>
       <c r="I177" s="6" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="J177" s="6" t="s">
         <v>30</v>
@@ -7537,10 +7612,10 @@
         <v>32</v>
       </c>
       <c r="M177" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="N177" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="Q177" s="6" t="s">
         <v>35</v>
@@ -7551,16 +7626,16 @@
     </row>
     <row r="179" spans="1:19">
       <c r="A179" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>116</v>
+        <v>421</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E179" s="6" t="s">
         <v>27</v>
@@ -7590,7 +7665,7 @@
         <v>104</v>
       </c>
       <c r="N179" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q179" s="6" t="s">
         <v>35</v>
@@ -7601,16 +7676,16 @@
     </row>
     <row r="181" spans="1:19">
       <c r="A181" s="9" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E181" s="6" t="s">
         <v>27</v>
@@ -7625,7 +7700,7 @@
         <v>28</v>
       </c>
       <c r="I181" s="6" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="J181" s="6" t="s">
         <v>30</v>
@@ -7637,7 +7712,7 @@
         <v>32</v>
       </c>
       <c r="M181" t="s">
-        <v>203</v>
+        <v>374</v>
       </c>
       <c r="N181" t="s">
         <v>34</v>
@@ -7651,16 +7726,16 @@
     </row>
     <row r="183" spans="1:19">
       <c r="A183" s="9" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>427</v>
+        <v>121</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E183" s="6" t="s">
         <v>27</v>
@@ -7687,10 +7762,10 @@
         <v>32</v>
       </c>
       <c r="M183" t="s">
-        <v>246</v>
+        <v>109</v>
       </c>
       <c r="N183" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="Q183" s="6" t="s">
         <v>35</v>
@@ -7701,16 +7776,16 @@
     </row>
     <row r="185" spans="1:19">
       <c r="A185" s="9" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="E185" s="6" t="s">
         <v>27</v>
@@ -7737,10 +7812,10 @@
         <v>32</v>
       </c>
       <c r="M185" t="s">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="N185" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="Q185" s="6" t="s">
         <v>35</v>
@@ -7751,16 +7826,16 @@
     </row>
     <row r="187" spans="1:19">
       <c r="A187" s="9" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E187" s="6" t="s">
         <v>27</v>
@@ -7784,16 +7859,16 @@
         <v>31</v>
       </c>
       <c r="L187" t="s">
-        <v>402</v>
+        <v>32</v>
+      </c>
+      <c r="M187" t="s">
+        <v>251</v>
       </c>
       <c r="N187" t="s">
-        <v>34</v>
-      </c>
-      <c r="O187" t="s">
-        <v>359</v>
+        <v>98</v>
       </c>
       <c r="Q187" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S187" s="7" t="s">
         <v>36</v>
@@ -7801,16 +7876,16 @@
     </row>
     <row r="189" spans="1:19">
       <c r="A189" s="9" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B189" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="D189" s="6" t="s">
         <v>437</v>
-      </c>
-      <c r="C189" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="D189" s="6" t="s">
-        <v>378</v>
       </c>
       <c r="E189" s="6" t="s">
         <v>27</v>
@@ -7837,10 +7912,10 @@
         <v>32</v>
       </c>
       <c r="M189" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="N189" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="Q189" s="6" t="s">
         <v>35</v>
@@ -7851,16 +7926,16 @@
     </row>
     <row r="191" spans="1:19">
       <c r="A191" s="9" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>378</v>
+        <v>444</v>
       </c>
       <c r="E191" s="6" t="s">
         <v>27</v>
@@ -7884,16 +7959,16 @@
         <v>31</v>
       </c>
       <c r="L191" t="s">
-        <v>32</v>
-      </c>
-      <c r="M191" t="s">
-        <v>296</v>
+        <v>411</v>
       </c>
       <c r="N191" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="O191" t="s">
+        <v>368</v>
       </c>
       <c r="Q191" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S191" s="7" t="s">
         <v>36</v>
@@ -7901,16 +7976,16 @@
     </row>
     <row r="193" spans="1:19">
       <c r="A193" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>174</v>
+        <v>447</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>443</v>
+        <v>387</v>
       </c>
       <c r="E193" s="6" t="s">
         <v>27</v>
@@ -7937,10 +8012,10 @@
         <v>32</v>
       </c>
       <c r="M193" t="s">
-        <v>403</v>
+        <v>109</v>
       </c>
       <c r="N193" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="Q193" s="6" t="s">
         <v>35</v>
@@ -7951,16 +8026,16 @@
     </row>
     <row r="195" spans="1:19">
       <c r="A195" s="9" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>446</v>
+        <v>82</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>447</v>
+        <v>387</v>
       </c>
       <c r="E195" s="6" t="s">
         <v>27</v>
@@ -7975,7 +8050,7 @@
         <v>28</v>
       </c>
       <c r="I195" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J195" s="6" t="s">
         <v>30</v>
@@ -7987,10 +8062,10 @@
         <v>32</v>
       </c>
       <c r="M195" t="s">
-        <v>51</v>
+        <v>301</v>
       </c>
       <c r="N195" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q195" s="6" t="s">
         <v>35</v>
@@ -8001,16 +8076,16 @@
     </row>
     <row r="197" spans="1:19">
       <c r="A197" s="9" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>446</v>
+        <v>179</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E197" s="6" t="s">
         <v>27</v>
@@ -8037,10 +8112,10 @@
         <v>32</v>
       </c>
       <c r="M197" t="s">
-        <v>163</v>
+        <v>412</v>
       </c>
       <c r="N197" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="Q197" s="6" t="s">
         <v>35</v>
@@ -8051,16 +8126,16 @@
     </row>
     <row r="199" spans="1:19">
       <c r="A199" s="9" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E199" s="6" t="s">
         <v>27</v>
@@ -8075,7 +8150,7 @@
         <v>28</v>
       </c>
       <c r="I199" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J199" s="6" t="s">
         <v>30</v>
@@ -8087,10 +8162,10 @@
         <v>32</v>
       </c>
       <c r="M199" t="s">
-        <v>185</v>
+        <v>57</v>
       </c>
       <c r="N199" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="Q199" s="6" t="s">
         <v>35</v>
@@ -8101,16 +8176,16 @@
     </row>
     <row r="201" spans="1:19">
       <c r="A201" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="C201" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="B201" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="C201" s="6" t="s">
-        <v>331</v>
-      </c>
       <c r="D201" s="6" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E201" s="6" t="s">
         <v>27</v>
@@ -8137,10 +8212,10 @@
         <v>32</v>
       </c>
       <c r="M201" t="s">
-        <v>296</v>
+        <v>168</v>
       </c>
       <c r="N201" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q201" s="6" t="s">
         <v>35</v>
@@ -8151,16 +8226,16 @@
     </row>
     <row r="203" spans="1:19">
       <c r="A203" s="9" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E203" s="6" t="s">
         <v>27</v>
@@ -8178,7 +8253,7 @@
         <v>50</v>
       </c>
       <c r="J203" s="6" t="s">
-        <v>281</v>
+        <v>30</v>
       </c>
       <c r="K203" t="s">
         <v>31</v>
@@ -8187,10 +8262,10 @@
         <v>32</v>
       </c>
       <c r="M203" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
       <c r="N203" t="s">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="Q203" s="6" t="s">
         <v>35</v>
@@ -8201,16 +8276,16 @@
     </row>
     <row r="205" spans="1:19">
       <c r="A205" s="9" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>464</v>
+        <v>340</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E205" s="6" t="s">
         <v>27</v>
@@ -8237,10 +8312,10 @@
         <v>32</v>
       </c>
       <c r="M205" t="s">
-        <v>466</v>
+        <v>301</v>
       </c>
       <c r="N205" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="Q205" s="6" t="s">
         <v>35</v>
@@ -8275,10 +8350,10 @@
         <v>28</v>
       </c>
       <c r="I207" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J207" s="6" t="s">
-        <v>30</v>
+        <v>286</v>
       </c>
       <c r="K207" t="s">
         <v>31</v>
@@ -8287,10 +8362,10 @@
         <v>32</v>
       </c>
       <c r="M207" t="s">
-        <v>104</v>
+        <v>262</v>
       </c>
       <c r="N207" t="s">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="Q207" s="6" t="s">
         <v>35</v>
@@ -8337,10 +8412,10 @@
         <v>32</v>
       </c>
       <c r="M209" t="s">
-        <v>185</v>
+        <v>475</v>
       </c>
       <c r="N209" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="Q209" s="6" t="s">
         <v>35</v>
@@ -8351,16 +8426,16 @@
     </row>
     <row r="211" spans="1:19">
       <c r="A211" s="9" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>107</v>
+        <v>478</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="E211" s="6" t="s">
         <v>27</v>
@@ -8375,7 +8450,7 @@
         <v>28</v>
       </c>
       <c r="I211" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J211" s="6" t="s">
         <v>30</v>
@@ -8387,10 +8462,10 @@
         <v>32</v>
       </c>
       <c r="M211" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="N211" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q211" s="6" t="s">
         <v>35</v>
@@ -8401,16 +8476,16 @@
     </row>
     <row r="213" spans="1:19">
       <c r="A213" s="9" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>174</v>
+        <v>482</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="E213" s="6" t="s">
         <v>27</v>
@@ -8425,7 +8500,7 @@
         <v>28</v>
       </c>
       <c r="I213" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J213" s="6" t="s">
         <v>30</v>
@@ -8437,10 +8512,10 @@
         <v>32</v>
       </c>
       <c r="M213" t="s">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="N213" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="Q213" s="6" t="s">
         <v>35</v>
@@ -8451,13 +8526,13 @@
     </row>
     <row r="215" spans="1:19">
       <c r="A215" s="9" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>482</v>
+        <v>112</v>
       </c>
       <c r="D215" s="6" t="s">
         <v>483</v>
@@ -8487,10 +8562,10 @@
         <v>32</v>
       </c>
       <c r="M215" t="s">
-        <v>484</v>
+        <v>190</v>
       </c>
       <c r="N215" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="Q215" s="6" t="s">
         <v>35</v>
@@ -8501,13 +8576,13 @@
     </row>
     <row r="217" spans="1:19">
       <c r="A217" s="9" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>487</v>
+        <v>179</v>
       </c>
       <c r="D217" s="6" t="s">
         <v>488</v>
@@ -8537,10 +8612,10 @@
         <v>32</v>
       </c>
       <c r="M217" t="s">
-        <v>312</v>
+        <v>89</v>
       </c>
       <c r="N217" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="Q217" s="6" t="s">
         <v>35</v>
@@ -8575,7 +8650,7 @@
         <v>28</v>
       </c>
       <c r="I219" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J219" s="6" t="s">
         <v>30</v>
@@ -8587,10 +8662,10 @@
         <v>32</v>
       </c>
       <c r="M219" t="s">
-        <v>83</v>
+        <v>493</v>
       </c>
       <c r="N219" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="Q219" s="6" t="s">
         <v>35</v>
@@ -8601,16 +8676,16 @@
     </row>
     <row r="221" spans="1:19">
       <c r="A221" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E221" s="6" t="s">
         <v>27</v>
@@ -8625,7 +8700,7 @@
         <v>28</v>
       </c>
       <c r="I221" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J221" s="6" t="s">
         <v>30</v>
@@ -8637,10 +8712,10 @@
         <v>32</v>
       </c>
       <c r="M221" t="s">
-        <v>277</v>
+        <v>317</v>
       </c>
       <c r="N221" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="Q221" s="6" t="s">
         <v>35</v>
@@ -8651,16 +8726,16 @@
     </row>
     <row r="223" spans="1:19">
       <c r="A223" s="9" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E223" s="6" t="s">
         <v>27</v>
@@ -8675,7 +8750,7 @@
         <v>28</v>
       </c>
       <c r="I223" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J223" s="6" t="s">
         <v>30</v>
@@ -8687,10 +8762,10 @@
         <v>32</v>
       </c>
       <c r="M223" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="N223" t="s">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c r="Q223" s="6" t="s">
         <v>35</v>
@@ -8701,16 +8776,16 @@
     </row>
     <row r="225" spans="1:19">
       <c r="A225" s="9" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E225" s="6" t="s">
         <v>27</v>
@@ -8725,25 +8800,25 @@
         <v>28</v>
       </c>
       <c r="I225" s="6" t="s">
-        <v>505</v>
+        <v>50</v>
       </c>
       <c r="J225" s="6" t="s">
-        <v>506</v>
+        <v>30</v>
       </c>
       <c r="K225" t="s">
-        <v>241</v>
+        <v>31</v>
       </c>
       <c r="L225" t="s">
-        <v>321</v>
+        <v>32</v>
       </c>
       <c r="M225" t="s">
-        <v>33</v>
+        <v>282</v>
       </c>
       <c r="N225" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="Q225" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S225" s="7" t="s">
         <v>36</v>
@@ -8751,17 +8826,17 @@
     </row>
     <row r="227" spans="1:19">
       <c r="A227" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="B227" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="B227" s="9" t="s">
+      <c r="C227" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="C227" s="6" t="s">
+      <c r="D227" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="D227" s="6" t="s">
-        <v>510</v>
-      </c>
       <c r="E227" s="6" t="s">
         <v>27</v>
       </c>
@@ -8775,28 +8850,25 @@
         <v>28</v>
       </c>
       <c r="I227" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J227" s="6" t="s">
-        <v>511</v>
+        <v>30</v>
       </c>
       <c r="K227" t="s">
-        <v>241</v>
+        <v>31</v>
       </c>
       <c r="L227" t="s">
-        <v>512</v>
+        <v>32</v>
       </c>
       <c r="M227" t="s">
-        <v>246</v>
+        <v>33</v>
       </c>
       <c r="N227" t="s">
-        <v>92</v>
-      </c>
-      <c r="P227" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="Q227" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S227" s="7" t="s">
         <v>36</v>
@@ -8804,49 +8876,49 @@
     </row>
     <row r="229" spans="1:19">
       <c r="A229" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="D229" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="B229" s="9" t="s">
+      <c r="E229" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F229" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G229" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H229" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I229" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="C229" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D229" s="6" t="s">
+      <c r="J229" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="E229" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F229" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G229" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H229" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I229" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J229" s="6" t="s">
-        <v>516</v>
-      </c>
       <c r="K229" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L229" t="s">
-        <v>32</v>
+        <v>326</v>
       </c>
       <c r="M229" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="N229" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="Q229" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S229" s="7" t="s">
         <v>36</v>
@@ -8854,13 +8926,13 @@
     </row>
     <row r="231" spans="1:19">
       <c r="A231" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B231" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="B231" s="9" t="s">
+      <c r="C231" s="6" t="s">
         <v>518</v>
-      </c>
-      <c r="C231" s="6" t="s">
-        <v>153</v>
       </c>
       <c r="D231" s="6" t="s">
         <v>519</v>
@@ -8878,25 +8950,25 @@
         <v>28</v>
       </c>
       <c r="I231" s="6" t="s">
-        <v>505</v>
+        <v>40</v>
       </c>
       <c r="J231" s="6" t="s">
         <v>520</v>
       </c>
       <c r="K231" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L231" t="s">
-        <v>234</v>
+        <v>521</v>
       </c>
       <c r="M231" t="s">
-        <v>521</v>
+        <v>251</v>
       </c>
       <c r="N231" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P231" t="s">
-        <v>522</v>
+        <v>98</v>
       </c>
       <c r="Q231" s="6" t="s">
         <v>36</v>
@@ -8907,49 +8979,49 @@
     </row>
     <row r="233" spans="1:19">
       <c r="A233" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="B233" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="B233" s="9" t="s">
+      <c r="C233" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D233" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="C233" s="6" t="s">
+      <c r="E233" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F233" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G233" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H233" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I233" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J233" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="D233" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="E233" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F233" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G233" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H233" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I233" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="J233" s="6" t="s">
-        <v>527</v>
-      </c>
       <c r="K233" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L233" t="s">
-        <v>321</v>
+        <v>32</v>
       </c>
       <c r="M233" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="N233" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="Q233" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S233" s="7" t="s">
         <v>36</v>
@@ -8957,49 +9029,52 @@
     </row>
     <row r="235" spans="1:19">
       <c r="A235" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="B235" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D235" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="B235" s="9" t="s">
+      <c r="E235" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F235" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G235" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H235" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I235" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="J235" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="C235" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="D235" s="6" t="s">
+      <c r="K235" t="s">
+        <v>246</v>
+      </c>
+      <c r="L235" t="s">
+        <v>239</v>
+      </c>
+      <c r="M235" t="s">
         <v>530</v>
       </c>
-      <c r="E235" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F235" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G235" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H235" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I235" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J235" s="6" t="s">
+      <c r="N235" t="s">
+        <v>52</v>
+      </c>
+      <c r="P235" t="s">
         <v>531</v>
       </c>
-      <c r="K235" t="s">
-        <v>241</v>
-      </c>
-      <c r="L235" t="s">
-        <v>32</v>
-      </c>
-      <c r="M235" t="s">
-        <v>98</v>
-      </c>
-      <c r="N235" t="s">
-        <v>99</v>
-      </c>
       <c r="Q235" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S235" s="7" t="s">
         <v>36</v>
@@ -9013,10 +9088,10 @@
         <v>533</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>460</v>
+        <v>534</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E237" s="6" t="s">
         <v>27</v>
@@ -9031,22 +9106,22 @@
         <v>28</v>
       </c>
       <c r="I237" s="6" t="s">
-        <v>40</v>
+        <v>514</v>
       </c>
       <c r="J237" s="6" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K237" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L237" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M237" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="N237" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="Q237" s="6" t="s">
         <v>36</v>
@@ -9057,16 +9132,16 @@
     </row>
     <row r="239" spans="1:19">
       <c r="A239" s="9" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>538</v>
+        <v>455</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="E239" s="6" t="s">
         <v>27</v>
@@ -9084,22 +9159,22 @@
         <v>40</v>
       </c>
       <c r="J239" s="6" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K239" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L239" t="s">
-        <v>321</v>
+        <v>32</v>
       </c>
       <c r="M239" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="N239" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="Q239" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S239" s="7" t="s">
         <v>36</v>
@@ -9107,16 +9182,16 @@
     </row>
     <row r="241" spans="1:19">
       <c r="A241" s="9" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>434</v>
+        <v>469</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="E241" s="6" t="s">
         <v>27</v>
@@ -9134,22 +9209,22 @@
         <v>40</v>
       </c>
       <c r="J241" s="6" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K241" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L241" t="s">
-        <v>32</v>
+        <v>326</v>
       </c>
       <c r="M241" t="s">
-        <v>277</v>
+        <v>208</v>
       </c>
       <c r="N241" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="Q241" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S241" s="7" t="s">
         <v>36</v>
@@ -9157,17 +9232,17 @@
     </row>
     <row r="243" spans="1:19">
       <c r="A243" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="B243" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D243" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="B243" s="9" t="s">
-        <v>544</v>
-      </c>
-      <c r="C243" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="D243" s="6" t="s">
-        <v>546</v>
-      </c>
       <c r="E243" s="6" t="s">
         <v>27</v>
       </c>
@@ -9181,22 +9256,22 @@
         <v>28</v>
       </c>
       <c r="I243" s="6" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="J243" s="6" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K243" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L243" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M243" t="s">
-        <v>388</v>
+        <v>208</v>
       </c>
       <c r="N243" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="Q243" s="6" t="s">
         <v>36</v>
@@ -9207,46 +9282,46 @@
     </row>
     <row r="245" spans="1:19">
       <c r="A245" s="9" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>550</v>
+        <v>443</v>
       </c>
       <c r="D245" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="E245" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F245" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G245" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H245" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I245" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J245" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="E245" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F245" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G245" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H245" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I245" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="J245" s="6" t="s">
-        <v>552</v>
-      </c>
       <c r="K245" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L245" t="s">
         <v>32</v>
       </c>
       <c r="M245" t="s">
-        <v>91</v>
+        <v>282</v>
       </c>
       <c r="N245" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="Q245" s="6" t="s">
         <v>35</v>
@@ -9257,13 +9332,13 @@
     </row>
     <row r="247" spans="1:19">
       <c r="A247" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="B247" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="B247" s="9" t="s">
+      <c r="C247" s="6" t="s">
         <v>554</v>
-      </c>
-      <c r="C247" s="6" t="s">
-        <v>491</v>
       </c>
       <c r="D247" s="6" t="s">
         <v>555</v>
@@ -9281,22 +9356,22 @@
         <v>28</v>
       </c>
       <c r="I247" s="6" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="J247" s="6" t="s">
         <v>556</v>
       </c>
       <c r="K247" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L247" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M247" t="s">
-        <v>203</v>
+        <v>397</v>
       </c>
       <c r="N247" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="Q247" s="6" t="s">
         <v>36</v>
@@ -9331,22 +9406,22 @@
         <v>28</v>
       </c>
       <c r="I249" s="6" t="s">
-        <v>40</v>
+        <v>244</v>
       </c>
       <c r="J249" s="6" t="s">
         <v>561</v>
       </c>
       <c r="K249" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L249" t="s">
         <v>32</v>
       </c>
       <c r="M249" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="N249" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="Q249" s="6" t="s">
         <v>35</v>
@@ -9363,7 +9438,7 @@
         <v>563</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>550</v>
+        <v>135</v>
       </c>
       <c r="D251" s="6" t="s">
         <v>564</v>
@@ -9381,25 +9456,25 @@
         <v>28</v>
       </c>
       <c r="I251" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="J251" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="J251" s="6" t="s">
-        <v>566</v>
-      </c>
       <c r="K251" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L251" t="s">
-        <v>32</v>
+        <v>326</v>
       </c>
       <c r="M251" t="s">
-        <v>567</v>
+        <v>51</v>
       </c>
       <c r="N251" t="s">
         <v>34</v>
       </c>
       <c r="Q251" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S251" s="7" t="s">
         <v>36</v>
@@ -9407,49 +9482,49 @@
     </row>
     <row r="253" spans="1:19">
       <c r="A253" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="B253" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="C253" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="D253" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="B253" s="9" t="s">
+      <c r="E253" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F253" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G253" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H253" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I253" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J253" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="C253" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="D253" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="E253" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F253" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G253" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H253" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I253" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="J253" s="6" t="s">
-        <v>571</v>
-      </c>
       <c r="K253" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L253" t="s">
-        <v>32</v>
+        <v>326</v>
       </c>
       <c r="M253" t="s">
-        <v>51</v>
+        <v>208</v>
       </c>
       <c r="N253" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q253" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S253" s="7" t="s">
         <v>36</v>
@@ -9457,16 +9532,16 @@
     </row>
     <row r="255" spans="1:19">
       <c r="A255" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="B255" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="C255" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="B255" s="9" t="s">
+      <c r="D255" s="6" t="s">
         <v>573</v>
-      </c>
-      <c r="C255" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D255" s="6" t="s">
-        <v>574</v>
       </c>
       <c r="E255" s="6" t="s">
         <v>27</v>
@@ -9484,19 +9559,19 @@
         <v>40</v>
       </c>
       <c r="J255" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K255" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L255" t="s">
         <v>32</v>
       </c>
       <c r="M255" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="N255" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="Q255" s="6" t="s">
         <v>35</v>
@@ -9507,49 +9582,49 @@
     </row>
     <row r="257" spans="1:19">
       <c r="A257" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="B257" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="B257" s="9" t="s">
+      <c r="C257" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="D257" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="C257" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D257" s="6" t="s">
+      <c r="E257" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F257" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G257" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H257" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I257" s="6" t="s">
         <v>578</v>
-      </c>
-      <c r="E257" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F257" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G257" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H257" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I257" s="6" t="s">
-        <v>239</v>
       </c>
       <c r="J257" s="6" t="s">
         <v>579</v>
       </c>
       <c r="K257" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L257" t="s">
-        <v>321</v>
+        <v>32</v>
       </c>
       <c r="M257" t="s">
-        <v>203</v>
+        <v>580</v>
       </c>
       <c r="N257" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="Q257" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S257" s="7" t="s">
         <v>36</v>
@@ -9557,13 +9632,13 @@
     </row>
     <row r="259" spans="1:19">
       <c r="A259" s="9" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>582</v>
+        <v>482</v>
       </c>
       <c r="D259" s="6" t="s">
         <v>583</v>
@@ -9581,22 +9656,22 @@
         <v>28</v>
       </c>
       <c r="I259" s="6" t="s">
-        <v>40</v>
+        <v>514</v>
       </c>
       <c r="J259" s="6" t="s">
         <v>584</v>
       </c>
       <c r="K259" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L259" t="s">
         <v>32</v>
       </c>
       <c r="M259" t="s">
-        <v>521</v>
+        <v>57</v>
       </c>
       <c r="N259" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="Q259" s="6" t="s">
         <v>35</v>
@@ -9613,7 +9688,7 @@
         <v>586</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="D261" s="6" t="s">
         <v>587</v>
@@ -9631,22 +9706,22 @@
         <v>28</v>
       </c>
       <c r="I261" s="6" t="s">
-        <v>239</v>
+        <v>40</v>
       </c>
       <c r="J261" s="6" t="s">
         <v>588</v>
       </c>
       <c r="K261" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L261" t="s">
         <v>32</v>
       </c>
       <c r="M261" t="s">
-        <v>589</v>
+        <v>42</v>
       </c>
       <c r="N261" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="Q261" s="6" t="s">
         <v>35</v>
@@ -9657,49 +9732,49 @@
     </row>
     <row r="263" spans="1:19">
       <c r="A263" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="B263" s="9" t="s">
         <v>590</v>
       </c>
-      <c r="B263" s="9" t="s">
+      <c r="C263" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D263" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="C263" s="6" t="s">
+      <c r="E263" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F263" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G263" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H263" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I263" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="J263" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="D263" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="E263" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F263" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G263" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H263" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I263" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="J263" s="6" t="s">
-        <v>594</v>
-      </c>
       <c r="K263" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L263" t="s">
-        <v>32</v>
+        <v>326</v>
       </c>
       <c r="M263" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="N263" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="Q263" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S263" s="7" t="s">
         <v>36</v>
@@ -9707,46 +9782,46 @@
     </row>
     <row r="265" spans="1:19">
       <c r="A265" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="B265" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="C265" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="B265" s="9" t="s">
+      <c r="D265" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="C265" s="6" t="s">
+      <c r="E265" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F265" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G265" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H265" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I265" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J265" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="D265" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="E265" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F265" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G265" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H265" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I265" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="J265" s="6" t="s">
-        <v>599</v>
-      </c>
       <c r="K265" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L265" t="s">
         <v>32</v>
       </c>
       <c r="M265" t="s">
-        <v>83</v>
+        <v>530</v>
       </c>
       <c r="N265" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q265" s="6" t="s">
         <v>35</v>
@@ -9757,46 +9832,46 @@
     </row>
     <row r="267" spans="1:19">
       <c r="A267" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="B267" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="C267" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D267" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="B267" s="9" t="s">
+      <c r="E267" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F267" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G267" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H267" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I267" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="J267" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="C267" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D267" s="6" t="s">
+      <c r="K267" t="s">
+        <v>246</v>
+      </c>
+      <c r="L267" t="s">
+        <v>32</v>
+      </c>
+      <c r="M267" t="s">
         <v>602</v>
       </c>
-      <c r="E267" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F267" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G267" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H267" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I267" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="J267" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="K267" t="s">
-        <v>241</v>
-      </c>
-      <c r="L267" t="s">
-        <v>32</v>
-      </c>
-      <c r="M267" t="s">
-        <v>104</v>
-      </c>
       <c r="N267" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="Q267" s="6" t="s">
         <v>35</v>
@@ -9807,46 +9882,46 @@
     </row>
     <row r="269" spans="1:19">
       <c r="A269" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="B269" s="9" t="s">
         <v>604</v>
       </c>
-      <c r="B269" s="9" t="s">
+      <c r="C269" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="C269" s="6" t="s">
+      <c r="D269" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="D269" s="6" t="s">
+      <c r="E269" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F269" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G269" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H269" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I269" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="J269" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="E269" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F269" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G269" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H269" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I269" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J269" s="6" t="s">
-        <v>608</v>
-      </c>
       <c r="K269" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L269" t="s">
         <v>32</v>
       </c>
       <c r="M269" t="s">
-        <v>104</v>
+        <v>247</v>
       </c>
       <c r="N269" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="Q269" s="6" t="s">
         <v>35</v>
@@ -9857,49 +9932,49 @@
     </row>
     <row r="271" spans="1:19">
       <c r="A271" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="B271" s="9" t="s">
         <v>609</v>
       </c>
-      <c r="B271" s="9" t="s">
+      <c r="C271" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="C271" s="6" t="s">
+      <c r="D271" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="D271" s="6" t="s">
+      <c r="E271" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F271" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G271" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H271" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I271" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J271" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="E271" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F271" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G271" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H271" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I271" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="J271" s="6" t="s">
-        <v>613</v>
-      </c>
       <c r="K271" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L271" t="s">
-        <v>321</v>
+        <v>32</v>
       </c>
       <c r="M271" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="N271" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="Q271" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S271" s="7" t="s">
         <v>36</v>
@@ -9907,49 +9982,49 @@
     </row>
     <row r="273" spans="1:19">
       <c r="A273" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="B273" s="9" t="s">
         <v>614</v>
       </c>
-      <c r="B273" s="9" t="s">
+      <c r="C273" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D273" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="C273" s="6" t="s">
+      <c r="E273" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F273" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G273" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H273" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I273" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="J273" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="D273" s="6" t="s">
-        <v>617</v>
-      </c>
-      <c r="E273" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F273" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G273" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H273" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I273" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="J273" s="6" t="s">
-        <v>618</v>
-      </c>
       <c r="K273" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L273" t="s">
-        <v>321</v>
+        <v>32</v>
       </c>
       <c r="M273" t="s">
-        <v>257</v>
+        <v>109</v>
       </c>
       <c r="N273" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="Q273" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S273" s="7" t="s">
         <v>36</v>
@@ -9957,49 +10032,49 @@
     </row>
     <row r="275" spans="1:19">
       <c r="A275" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="B275" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="C275" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="B275" s="9" t="s">
+      <c r="D275" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="C275" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D275" s="6" t="s">
+      <c r="E275" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F275" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G275" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H275" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I275" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J275" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="E275" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F275" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G275" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H275" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I275" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="J275" s="6" t="s">
-        <v>622</v>
-      </c>
       <c r="K275" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L275" t="s">
-        <v>623</v>
+        <v>32</v>
       </c>
       <c r="M275" t="s">
-        <v>624</v>
+        <v>109</v>
       </c>
       <c r="N275" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="Q275" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S275" s="7" t="s">
         <v>36</v>
@@ -10007,46 +10082,46 @@
     </row>
     <row r="277" spans="1:19">
       <c r="A277" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="B277" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="C277" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="D277" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="B277" s="9" t="s">
+      <c r="E277" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F277" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G277" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H277" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I277" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="J277" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="C277" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D277" s="6" t="s">
-        <v>621</v>
-      </c>
-      <c r="E277" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F277" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G277" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H277" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I277" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="J277" s="6" t="s">
-        <v>571</v>
-      </c>
       <c r="K277" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L277" t="s">
-        <v>623</v>
+        <v>326</v>
       </c>
       <c r="M277" t="s">
-        <v>589</v>
+        <v>118</v>
       </c>
       <c r="N277" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="Q277" s="6" t="s">
         <v>36</v>
@@ -10081,174 +10156,174 @@
         <v>28</v>
       </c>
       <c r="I279" s="6" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="J279" s="6" t="s">
-        <v>506</v>
+        <v>631</v>
       </c>
       <c r="K279" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L279" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M279" t="s">
-        <v>388</v>
+        <v>262</v>
       </c>
       <c r="N279" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="Q279" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="280" spans="1:19">
-      <c r="A280" s="9" t="s">
-        <v>631</v>
-      </c>
-      <c r="B280" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="C280" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="D280" s="6" t="s">
-        <v>630</v>
-      </c>
-      <c r="E280" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F280" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G280" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H280" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I280" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="J280" s="6" t="s">
+      <c r="S279" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="281" spans="1:19">
+      <c r="A281" s="9" t="s">
         <v>632</v>
       </c>
-      <c r="K280" t="s">
-        <v>241</v>
-      </c>
-      <c r="L280" t="s">
+      <c r="B281" s="9" t="s">
         <v>633</v>
       </c>
-      <c r="M280" t="s">
-        <v>51</v>
-      </c>
-      <c r="N280" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q280" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S280" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="282" spans="1:19">
-      <c r="A282" s="9" t="s">
+      <c r="C281" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D281" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="B282" s="9" t="s">
+      <c r="E281" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F281" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G281" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H281" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I281" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="J281" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="C282" s="6" t="s">
+      <c r="K281" t="s">
+        <v>246</v>
+      </c>
+      <c r="L281" t="s">
         <v>636</v>
       </c>
-      <c r="D282" s="6" t="s">
+      <c r="M281" t="s">
         <v>637</v>
       </c>
-      <c r="E282" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F282" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G282" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H282" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I282" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="J282" s="6" t="s">
+      <c r="N281" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q281" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S281" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="283" spans="1:19">
+      <c r="A283" s="9" t="s">
         <v>638</v>
       </c>
-      <c r="K282" t="s">
-        <v>241</v>
-      </c>
-      <c r="L282" t="s">
-        <v>32</v>
-      </c>
-      <c r="M282" t="s">
-        <v>83</v>
-      </c>
-      <c r="N282" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q282" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="S282" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="284" spans="1:19">
-      <c r="A284" s="9" t="s">
+      <c r="B283" s="9" t="s">
         <v>639</v>
       </c>
-      <c r="B284" s="9" t="s">
+      <c r="C283" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D283" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="E283" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F283" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G283" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H283" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I283" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="J283" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="K283" t="s">
+        <v>246</v>
+      </c>
+      <c r="L283" t="s">
+        <v>636</v>
+      </c>
+      <c r="M283" t="s">
+        <v>602</v>
+      </c>
+      <c r="N283" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q283" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S283" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="285" spans="1:19">
+      <c r="A285" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="C284" s="6" t="s">
+      <c r="B285" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="D284" s="6" t="s">
+      <c r="C285" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="E284" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F284" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G284" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H284" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I284" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="J284" s="6" t="s">
+      <c r="D285" s="6" t="s">
         <v>643</v>
       </c>
-      <c r="K284" t="s">
-        <v>241</v>
-      </c>
-      <c r="L284" t="s">
-        <v>321</v>
-      </c>
-      <c r="M284" t="s">
-        <v>257</v>
-      </c>
-      <c r="N284" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q284" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S284" s="7" t="s">
+      <c r="E285" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F285" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G285" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H285" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I285" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="J285" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="K285" t="s">
+        <v>246</v>
+      </c>
+      <c r="L285" t="s">
+        <v>326</v>
+      </c>
+      <c r="M285" t="s">
+        <v>397</v>
+      </c>
+      <c r="N285" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q285" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -10257,46 +10332,46 @@
         <v>644</v>
       </c>
       <c r="B286" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="C286" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="D286" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="E286" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F286" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G286" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H286" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I286" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="J286" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="C286" s="6" t="s">
+      <c r="K286" t="s">
+        <v>246</v>
+      </c>
+      <c r="L286" t="s">
         <v>646</v>
       </c>
-      <c r="D286" s="6" t="s">
-        <v>647</v>
-      </c>
-      <c r="E286" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F286" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G286" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H286" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I286" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="J286" s="6" t="s">
-        <v>648</v>
-      </c>
-      <c r="K286" t="s">
-        <v>241</v>
-      </c>
-      <c r="L286" t="s">
-        <v>32</v>
-      </c>
       <c r="M286" t="s">
-        <v>277</v>
+        <v>57</v>
       </c>
       <c r="N286" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="Q286" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S286" s="7" t="s">
         <v>36</v>
@@ -10304,16 +10379,16 @@
     </row>
     <row r="288" spans="1:19">
       <c r="A288" s="9" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B288" s="9" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="D288" s="6" t="s">
-        <v>651</v>
+        <v>396</v>
       </c>
       <c r="E288" s="6" t="s">
         <v>27</v>
@@ -10328,25 +10403,25 @@
         <v>28</v>
       </c>
       <c r="I288" s="6" t="s">
-        <v>40</v>
+        <v>244</v>
       </c>
       <c r="J288" s="6" t="s">
-        <v>652</v>
+        <v>592</v>
       </c>
       <c r="K288" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L288" t="s">
-        <v>32</v>
+        <v>326</v>
       </c>
       <c r="M288" t="s">
-        <v>154</v>
+        <v>51</v>
       </c>
       <c r="N288" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="Q288" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S288" s="7" t="s">
         <v>36</v>
@@ -10354,46 +10429,46 @@
     </row>
     <row r="290" spans="1:19">
       <c r="A290" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="B290" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="C290" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="D290" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="E290" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F290" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G290" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H290" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I290" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="J290" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="B290" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="C290" s="6" t="s">
-        <v>655</v>
-      </c>
-      <c r="D290" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="E290" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F290" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G290" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H290" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I290" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J290" s="6" t="s">
-        <v>516</v>
-      </c>
       <c r="K290" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L290" t="s">
         <v>32</v>
       </c>
       <c r="M290" t="s">
-        <v>277</v>
+        <v>89</v>
       </c>
       <c r="N290" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="Q290" s="6" t="s">
         <v>35</v>
@@ -10404,49 +10479,49 @@
     </row>
     <row r="292" spans="1:19">
       <c r="A292" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="B292" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="C292" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="D292" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="B292" s="9" t="s">
+      <c r="E292" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F292" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G292" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H292" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I292" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="J292" s="6" t="s">
         <v>658</v>
       </c>
-      <c r="C292" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="D292" s="6" t="s">
-        <v>659</v>
-      </c>
-      <c r="E292" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F292" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G292" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H292" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I292" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="J292" s="6" t="s">
-        <v>660</v>
-      </c>
       <c r="K292" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L292" t="s">
-        <v>32</v>
+        <v>326</v>
       </c>
       <c r="M292" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="N292" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="Q292" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S292" s="7" t="s">
         <v>36</v>
@@ -10454,23 +10529,23 @@
     </row>
     <row r="294" spans="1:19">
       <c r="A294" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="B294" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="C294" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="B294" s="9" t="s">
+      <c r="D294" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="C294" s="6" t="s">
+      <c r="E294" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="D294" s="6" t="s">
+      <c r="F294" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="E294" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F294" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="G294" s="6" t="s">
         <v>27</v>
       </c>
@@ -10478,19 +10553,19 @@
         <v>28</v>
       </c>
       <c r="I294" s="6" t="s">
-        <v>565</v>
+        <v>40</v>
       </c>
       <c r="J294" s="6" t="s">
-        <v>665</v>
+        <v>621</v>
       </c>
       <c r="K294" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L294" t="s">
         <v>32</v>
       </c>
       <c r="M294" t="s">
-        <v>589</v>
+        <v>33</v>
       </c>
       <c r="N294" t="s">
         <v>42</v>
@@ -10504,46 +10579,46 @@
     </row>
     <row r="296" spans="1:19">
       <c r="A296" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="B296" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="B296" s="9" t="s">
+      <c r="C296" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="C296" s="6" t="s">
+      <c r="D296" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="D296" s="6" t="s">
+      <c r="E296" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F296" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G296" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H296" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I296" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="J296" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="E296" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F296" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G296" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H296" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I296" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="J296" s="6" t="s">
-        <v>613</v>
-      </c>
       <c r="K296" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L296" t="s">
         <v>32</v>
       </c>
       <c r="M296" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="N296" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q296" s="6" t="s">
         <v>35</v>
@@ -10560,10 +10635,10 @@
         <v>671</v>
       </c>
       <c r="C298" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D298" s="6" t="s">
         <v>672</v>
-      </c>
-      <c r="D298" s="6" t="s">
-        <v>673</v>
       </c>
       <c r="E298" s="6" t="s">
         <v>27</v>
@@ -10581,19 +10656,19 @@
         <v>40</v>
       </c>
       <c r="J298" s="6" t="s">
-        <v>535</v>
+        <v>673</v>
       </c>
       <c r="K298" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L298" t="s">
         <v>32</v>
       </c>
       <c r="M298" t="s">
-        <v>277</v>
+        <v>159</v>
       </c>
       <c r="N298" t="s">
-        <v>164</v>
+        <v>52</v>
       </c>
       <c r="Q298" s="6" t="s">
         <v>35</v>
@@ -10610,10 +10685,10 @@
         <v>675</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>464</v>
+        <v>676</v>
       </c>
       <c r="D300" s="6" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E300" s="6" t="s">
         <v>27</v>
@@ -10631,19 +10706,22 @@
         <v>40</v>
       </c>
       <c r="J300" s="6" t="s">
-        <v>677</v>
+        <v>525</v>
       </c>
       <c r="K300" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L300" t="s">
-        <v>402</v>
+        <v>32</v>
+      </c>
+      <c r="M300" t="s">
+        <v>282</v>
       </c>
       <c r="N300" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="Q300" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S300" s="7" t="s">
         <v>36</v>
@@ -10657,7 +10735,7 @@
         <v>679</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>446</v>
+        <v>656</v>
       </c>
       <c r="D302" s="6" t="s">
         <v>680</v>
@@ -10675,22 +10753,22 @@
         <v>28</v>
       </c>
       <c r="I302" s="6" t="s">
-        <v>40</v>
+        <v>244</v>
       </c>
       <c r="J302" s="6" t="s">
         <v>681</v>
       </c>
       <c r="K302" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L302" t="s">
         <v>32</v>
       </c>
       <c r="M302" t="s">
-        <v>113</v>
+        <v>185</v>
       </c>
       <c r="N302" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q302" s="6" t="s">
         <v>35</v>
@@ -10725,22 +10803,22 @@
         <v>28</v>
       </c>
       <c r="I304" s="6" t="s">
-        <v>40</v>
+        <v>578</v>
       </c>
       <c r="J304" s="6" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="K304" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L304" t="s">
         <v>32</v>
       </c>
       <c r="M304" t="s">
-        <v>359</v>
+        <v>602</v>
       </c>
       <c r="N304" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="Q304" s="6" t="s">
         <v>35</v>
@@ -10751,16 +10829,16 @@
     </row>
     <row r="306" spans="1:19">
       <c r="A306" s="9" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B306" s="9" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D306" s="6" t="s">
-        <v>470</v>
+        <v>690</v>
       </c>
       <c r="E306" s="6" t="s">
         <v>27</v>
@@ -10775,22 +10853,22 @@
         <v>28</v>
       </c>
       <c r="I306" s="6" t="s">
-        <v>40</v>
+        <v>514</v>
       </c>
       <c r="J306" s="6" t="s">
-        <v>689</v>
+        <v>626</v>
       </c>
       <c r="K306" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L306" t="s">
         <v>32</v>
       </c>
       <c r="M306" t="s">
-        <v>127</v>
+        <v>277</v>
       </c>
       <c r="N306" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="Q306" s="6" t="s">
         <v>35</v>
@@ -10801,16 +10879,16 @@
     </row>
     <row r="308" spans="1:19">
       <c r="A308" s="9" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B308" s="9" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C308" s="6" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D308" s="6" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E308" s="6" t="s">
         <v>27</v>
@@ -10825,22 +10903,22 @@
         <v>28</v>
       </c>
       <c r="I308" s="6" t="s">
-        <v>694</v>
+        <v>40</v>
       </c>
       <c r="J308" s="6" t="s">
-        <v>695</v>
+        <v>544</v>
       </c>
       <c r="K308" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L308" t="s">
         <v>32</v>
       </c>
       <c r="M308" t="s">
-        <v>98</v>
+        <v>282</v>
       </c>
       <c r="N308" t="s">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="Q308" s="6" t="s">
         <v>35</v>
@@ -10851,49 +10929,46 @@
     </row>
     <row r="310" spans="1:19">
       <c r="A310" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="B310" s="9" t="s">
         <v>696</v>
       </c>
-      <c r="B310" s="9" t="s">
+      <c r="C310" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="D310" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="C310" s="6" t="s">
+      <c r="E310" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F310" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G310" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H310" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I310" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J310" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="D310" s="6" t="s">
-        <v>699</v>
-      </c>
-      <c r="E310" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F310" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G310" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H310" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I310" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="J310" s="6" t="s">
-        <v>700</v>
-      </c>
       <c r="K310" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L310" t="s">
-        <v>32</v>
-      </c>
-      <c r="M310" t="s">
-        <v>701</v>
+        <v>411</v>
       </c>
       <c r="N310" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q310" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S310" s="7" t="s">
         <v>36</v>
@@ -10901,16 +10976,16 @@
     </row>
     <row r="312" spans="1:19">
       <c r="A312" s="9" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B312" s="9" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C312" s="6" t="s">
-        <v>704</v>
+        <v>455</v>
       </c>
       <c r="D312" s="6" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="E312" s="6" t="s">
         <v>27</v>
@@ -10928,19 +11003,19 @@
         <v>40</v>
       </c>
       <c r="J312" s="6" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="K312" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L312" t="s">
         <v>32</v>
       </c>
       <c r="M312" t="s">
-        <v>242</v>
+        <v>118</v>
       </c>
       <c r="N312" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="Q312" s="6" t="s">
         <v>35</v>
@@ -10951,16 +11026,16 @@
     </row>
     <row r="314" spans="1:19">
       <c r="A314" s="9" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B314" s="9" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C314" s="6" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="D314" s="6" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E314" s="6" t="s">
         <v>27</v>
@@ -10978,19 +11053,19 @@
         <v>40</v>
       </c>
       <c r="J314" s="6" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="K314" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L314" t="s">
         <v>32</v>
       </c>
       <c r="M314" t="s">
-        <v>242</v>
+        <v>368</v>
       </c>
       <c r="N314" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="Q314" s="6" t="s">
         <v>35</v>
@@ -11001,16 +11076,16 @@
     </row>
     <row r="316" spans="1:19">
       <c r="A316" s="9" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B316" s="9" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="D316" s="6" t="s">
-        <v>714</v>
+        <v>479</v>
       </c>
       <c r="E316" s="6" t="s">
         <v>27</v>
@@ -11025,22 +11100,22 @@
         <v>28</v>
       </c>
       <c r="I316" s="6" t="s">
-        <v>239</v>
+        <v>40</v>
       </c>
       <c r="J316" s="6" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="K316" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L316" t="s">
         <v>32</v>
       </c>
       <c r="M316" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="N316" t="s">
-        <v>164</v>
+        <v>52</v>
       </c>
       <c r="Q316" s="6" t="s">
         <v>35</v>
@@ -11051,51 +11126,301 @@
     </row>
     <row r="318" spans="1:19">
       <c r="A318" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="B318" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="C318" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="D318" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="E318" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F318" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G318" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H318" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I318" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="J318" s="6" t="s">
         <v>716</v>
       </c>
-      <c r="B318" s="9" t="s">
+      <c r="K318" t="s">
+        <v>246</v>
+      </c>
+      <c r="L318" t="s">
+        <v>32</v>
+      </c>
+      <c r="M318" t="s">
+        <v>104</v>
+      </c>
+      <c r="N318" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q318" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S318" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="320" spans="1:19">
+      <c r="A320" s="9" t="s">
         <v>717</v>
       </c>
-      <c r="C318" s="6" t="s">
+      <c r="B320" s="9" t="s">
         <v>718</v>
       </c>
-      <c r="D318" s="6" t="s">
+      <c r="C320" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="E318" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F318" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G318" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H318" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I318" s="6" t="s">
+      <c r="D320" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="E320" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F320" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G320" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H320" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I320" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="J320" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="K320" t="s">
+        <v>246</v>
+      </c>
+      <c r="L320" t="s">
+        <v>32</v>
+      </c>
+      <c r="M320" t="s">
+        <v>722</v>
+      </c>
+      <c r="N320" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q320" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S320" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="322" spans="1:19">
+      <c r="A322" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="B322" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="C322" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="D322" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="E322" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F322" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G322" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H322" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I322" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J318" s="6" t="s">
-        <v>720</v>
-      </c>
-      <c r="K318" t="s">
-        <v>241</v>
-      </c>
-      <c r="L318" t="s">
-        <v>32</v>
-      </c>
-      <c r="M318" t="s">
-        <v>388</v>
-      </c>
-      <c r="N318" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q318" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="S318" s="7" t="s">
+      <c r="J322" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="K322" t="s">
+        <v>246</v>
+      </c>
+      <c r="L322" t="s">
+        <v>32</v>
+      </c>
+      <c r="M322" t="s">
+        <v>247</v>
+      </c>
+      <c r="N322" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q322" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S322" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="324" spans="1:19">
+      <c r="A324" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="B324" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="C324" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="D324" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="E324" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F324" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G324" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H324" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I324" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J324" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="K324" t="s">
+        <v>246</v>
+      </c>
+      <c r="L324" t="s">
+        <v>32</v>
+      </c>
+      <c r="M324" t="s">
+        <v>247</v>
+      </c>
+      <c r="N324" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q324" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S324" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="326" spans="1:19">
+      <c r="A326" s="9" t="s">
+        <v>732</v>
+      </c>
+      <c r="B326" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="C326" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="D326" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="E326" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F326" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G326" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H326" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I326" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="J326" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="K326" t="s">
+        <v>246</v>
+      </c>
+      <c r="L326" t="s">
+        <v>32</v>
+      </c>
+      <c r="M326" t="s">
+        <v>118</v>
+      </c>
+      <c r="N326" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q326" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S326" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="328" spans="1:19">
+      <c r="A328" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="B328" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="C328" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="D328" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="E328" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F328" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G328" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H328" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I328" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J328" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="K328" t="s">
+        <v>246</v>
+      </c>
+      <c r="L328" t="s">
+        <v>32</v>
+      </c>
+      <c r="M328" t="s">
+        <v>397</v>
+      </c>
+      <c r="N328" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q328" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S328" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -11179,8 +11504,8 @@
     <hyperlink ref="B76" r:id="rId76"/>
     <hyperlink ref="A78" r:id="rId77"/>
     <hyperlink ref="B78" r:id="rId78"/>
-    <hyperlink ref="A79" r:id="rId79"/>
-    <hyperlink ref="B79" r:id="rId80"/>
+    <hyperlink ref="A80" r:id="rId79"/>
+    <hyperlink ref="B80" r:id="rId80"/>
     <hyperlink ref="A81" r:id="rId81"/>
     <hyperlink ref="B81" r:id="rId82"/>
     <hyperlink ref="A83" r:id="rId83"/>
@@ -11191,8 +11516,8 @@
     <hyperlink ref="B87" r:id="rId88"/>
     <hyperlink ref="A89" r:id="rId89"/>
     <hyperlink ref="B89" r:id="rId90"/>
-    <hyperlink ref="A90" r:id="rId91"/>
-    <hyperlink ref="B90" r:id="rId92"/>
+    <hyperlink ref="A91" r:id="rId91"/>
+    <hyperlink ref="B91" r:id="rId92"/>
     <hyperlink ref="A92" r:id="rId93"/>
     <hyperlink ref="B92" r:id="rId94"/>
     <hyperlink ref="A94" r:id="rId95"/>
@@ -11273,10 +11598,10 @@
     <hyperlink ref="B168" r:id="rId170"/>
     <hyperlink ref="A170" r:id="rId171"/>
     <hyperlink ref="B170" r:id="rId172"/>
-    <hyperlink ref="A171" r:id="rId173"/>
-    <hyperlink ref="B171" r:id="rId174"/>
-    <hyperlink ref="A173" r:id="rId175"/>
-    <hyperlink ref="B173" r:id="rId176"/>
+    <hyperlink ref="A172" r:id="rId173"/>
+    <hyperlink ref="B172" r:id="rId174"/>
+    <hyperlink ref="A174" r:id="rId175"/>
+    <hyperlink ref="B174" r:id="rId176"/>
     <hyperlink ref="A175" r:id="rId177"/>
     <hyperlink ref="B175" r:id="rId178"/>
     <hyperlink ref="A177" r:id="rId179"/>
@@ -11383,12 +11708,12 @@
     <hyperlink ref="B277" r:id="rId280"/>
     <hyperlink ref="A279" r:id="rId281"/>
     <hyperlink ref="B279" r:id="rId282"/>
-    <hyperlink ref="A280" r:id="rId283"/>
-    <hyperlink ref="B280" r:id="rId284"/>
-    <hyperlink ref="A282" r:id="rId285"/>
-    <hyperlink ref="B282" r:id="rId286"/>
-    <hyperlink ref="A284" r:id="rId287"/>
-    <hyperlink ref="B284" r:id="rId288"/>
+    <hyperlink ref="A281" r:id="rId283"/>
+    <hyperlink ref="B281" r:id="rId284"/>
+    <hyperlink ref="A283" r:id="rId285"/>
+    <hyperlink ref="B283" r:id="rId286"/>
+    <hyperlink ref="A285" r:id="rId287"/>
+    <hyperlink ref="B285" r:id="rId288"/>
     <hyperlink ref="A286" r:id="rId289"/>
     <hyperlink ref="B286" r:id="rId290"/>
     <hyperlink ref="A288" r:id="rId291"/>
@@ -11423,6 +11748,16 @@
     <hyperlink ref="B316" r:id="rId320"/>
     <hyperlink ref="A318" r:id="rId321"/>
     <hyperlink ref="B318" r:id="rId322"/>
+    <hyperlink ref="A320" r:id="rId323"/>
+    <hyperlink ref="B320" r:id="rId324"/>
+    <hyperlink ref="A322" r:id="rId325"/>
+    <hyperlink ref="B322" r:id="rId326"/>
+    <hyperlink ref="A324" r:id="rId327"/>
+    <hyperlink ref="B324" r:id="rId328"/>
+    <hyperlink ref="A326" r:id="rId329"/>
+    <hyperlink ref="B326" r:id="rId330"/>
+    <hyperlink ref="A328" r:id="rId331"/>
+    <hyperlink ref="B328" r:id="rId332"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11430,7 +11765,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11503,7 +11838,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="9" t="s">
-        <v>721</v>
+        <v>742</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>38</v>
@@ -11527,19 +11862,19 @@
         <v>28</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>722</v>
+        <v>743</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>723</v>
+        <v>744</v>
       </c>
       <c r="K2" t="s">
-        <v>724</v>
+        <v>745</v>
       </c>
       <c r="L2" t="s">
         <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="N2" t="s">
         <v>42</v>
@@ -11547,7 +11882,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="9" t="s">
-        <v>725</v>
+        <v>746</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>44</v>
@@ -11571,19 +11906,19 @@
         <v>28</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>722</v>
+        <v>743</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>723</v>
+        <v>744</v>
       </c>
       <c r="K4" t="s">
-        <v>724</v>
+        <v>745</v>
       </c>
       <c r="L4" t="s">
         <v>32</v>
       </c>
       <c r="M4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="N4" t="s">
         <v>42</v>
@@ -11591,16 +11926,16 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="9" t="s">
-        <v>726</v>
+        <v>747</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>27</v>
@@ -11615,19 +11950,19 @@
         <v>28</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>722</v>
+        <v>743</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>723</v>
+        <v>744</v>
       </c>
       <c r="K6" t="s">
-        <v>724</v>
+        <v>745</v>
       </c>
       <c r="L6" t="s">
         <v>32</v>
       </c>
       <c r="M6" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="N6" t="s">
         <v>34</v>
@@ -11635,16 +11970,16 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="9" t="s">
-        <v>727</v>
+        <v>748</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>27</v>
@@ -11659,16 +11994,16 @@
         <v>28</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>722</v>
+        <v>743</v>
       </c>
       <c r="K8" t="s">
-        <v>724</v>
+        <v>745</v>
       </c>
       <c r="L8" t="s">
         <v>32</v>
       </c>
       <c r="M8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="N8" t="s">
         <v>42</v>
@@ -11676,16 +12011,16 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="9" t="s">
-        <v>728</v>
+        <v>749</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>27</v>
@@ -11700,10 +12035,10 @@
         <v>28</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>722</v>
+        <v>743</v>
       </c>
       <c r="K10" t="s">
-        <v>724</v>
+        <v>745</v>
       </c>
       <c r="L10" t="s">
         <v>32</v>
@@ -11717,16 +12052,16 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="9" t="s">
-        <v>729</v>
+        <v>750</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>27</v>
@@ -11741,37 +12076,37 @@
         <v>28</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>722</v>
+        <v>743</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>723</v>
+        <v>744</v>
       </c>
       <c r="K12" t="s">
-        <v>724</v>
+        <v>745</v>
       </c>
       <c r="L12" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M12" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="N12" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="9" t="s">
-        <v>730</v>
+        <v>751</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>162</v>
-      </c>
       <c r="E14" s="6" t="s">
         <v>27</v>
       </c>
@@ -11785,36 +12120,36 @@
         <v>28</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>722</v>
+        <v>743</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>723</v>
+        <v>744</v>
       </c>
       <c r="K14" t="s">
-        <v>724</v>
+        <v>745</v>
       </c>
       <c r="L14" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M14" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="N14" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="9" t="s">
-        <v>731</v>
+        <v>752</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>27</v>
@@ -11829,36 +12164,36 @@
         <v>28</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>722</v>
+        <v>743</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>723</v>
+        <v>744</v>
       </c>
       <c r="K16" t="s">
-        <v>724</v>
+        <v>745</v>
       </c>
       <c r="L16" t="s">
         <v>32</v>
       </c>
       <c r="M16" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="N16" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="9" t="s">
-        <v>732</v>
+        <v>753</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>27</v>
@@ -11873,33 +12208,33 @@
         <v>28</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>722</v>
+        <v>743</v>
       </c>
       <c r="K18" t="s">
-        <v>724</v>
+        <v>745</v>
       </c>
       <c r="L18" t="s">
         <v>32</v>
       </c>
       <c r="M18" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="N18" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="9" t="s">
-        <v>733</v>
+        <v>754</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>27</v>
@@ -11914,42 +12249,42 @@
         <v>28</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>722</v>
+        <v>743</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>723</v>
+        <v>744</v>
       </c>
       <c r="K20" t="s">
-        <v>724</v>
+        <v>745</v>
       </c>
       <c r="L20" t="s">
         <v>32</v>
       </c>
       <c r="M20" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="N20" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="9" t="s">
-        <v>734</v>
+        <v>755</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>27</v>
+        <v>756</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>28</v>
+        <v>757</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>27</v>
@@ -11958,36 +12293,36 @@
         <v>28</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>722</v>
+        <v>40</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>723</v>
+        <v>758</v>
       </c>
       <c r="K22" t="s">
-        <v>724</v>
+        <v>745</v>
       </c>
       <c r="L22" t="s">
-        <v>32</v>
+        <v>326</v>
       </c>
       <c r="M22" t="s">
-        <v>567</v>
+        <v>208</v>
       </c>
       <c r="N22" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="9" t="s">
-        <v>735</v>
+        <v>759</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>415</v>
+        <v>354</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>416</v>
+        <v>355</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>417</v>
+        <v>356</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>27</v>
@@ -12002,16 +12337,19 @@
         <v>28</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>722</v>
+        <v>743</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>744</v>
       </c>
       <c r="K24" t="s">
-        <v>724</v>
+        <v>745</v>
       </c>
       <c r="L24" t="s">
         <v>32</v>
       </c>
       <c r="M24" t="s">
-        <v>484</v>
+        <v>580</v>
       </c>
       <c r="N24" t="s">
         <v>34</v>
@@ -12019,16 +12357,16 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="9" t="s">
-        <v>736</v>
+        <v>760</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>27</v>
@@ -12043,19 +12381,16 @@
         <v>28</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>722</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>723</v>
+        <v>743</v>
       </c>
       <c r="K26" t="s">
-        <v>724</v>
+        <v>745</v>
       </c>
       <c r="L26" t="s">
-        <v>321</v>
+        <v>32</v>
       </c>
       <c r="M26" t="s">
-        <v>203</v>
+        <v>493</v>
       </c>
       <c r="N26" t="s">
         <v>34</v>
@@ -12063,16 +12398,16 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="9" t="s">
-        <v>737</v>
+        <v>761</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>27</v>
@@ -12087,36 +12422,36 @@
         <v>28</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>722</v>
+        <v>743</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>723</v>
+        <v>744</v>
       </c>
       <c r="K28" t="s">
-        <v>724</v>
+        <v>745</v>
       </c>
       <c r="L28" t="s">
-        <v>32</v>
+        <v>326</v>
       </c>
       <c r="M28" t="s">
-        <v>466</v>
+        <v>208</v>
       </c>
       <c r="N28" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="9" t="s">
-        <v>738</v>
+        <v>762</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>498</v>
+        <v>458</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>499</v>
+        <v>455</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>27</v>
@@ -12131,22 +12466,66 @@
         <v>28</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>722</v>
+        <v>743</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>723</v>
+        <v>744</v>
       </c>
       <c r="K30" t="s">
-        <v>724</v>
+        <v>745</v>
       </c>
       <c r="L30" t="s">
         <v>32</v>
       </c>
       <c r="M30" t="s">
-        <v>277</v>
+        <v>475</v>
       </c>
       <c r="N30" t="s">
-        <v>164</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="K32" t="s">
+        <v>745</v>
+      </c>
+      <c r="L32" t="s">
+        <v>32</v>
+      </c>
+      <c r="M32" t="s">
+        <v>282</v>
+      </c>
+      <c r="N32" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -12181,6 +12560,8 @@
     <hyperlink ref="B28" r:id="rId28"/>
     <hyperlink ref="A30" r:id="rId29"/>
     <hyperlink ref="B30" r:id="rId30"/>
+    <hyperlink ref="A32" r:id="rId31"/>
+    <hyperlink ref="B32" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel_reports/Mark_Abkemeier.xlsx
+++ b/excel_reports/Mark_Abkemeier.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4377" uniqueCount="1130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4364" uniqueCount="1127">
   <si>
     <t>Policy Record</t>
   </si>
@@ -3022,24 +3022,6 @@
     <t>Medicare Advantage Choice Plan 3</t>
   </si>
   <si>
-    <t>3355620526</t>
-  </si>
-  <si>
-    <t>16193301</t>
-  </si>
-  <si>
-    <t>Perry</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>Josh</t>
-  </si>
-  <si>
-    <t>Musick</t>
-  </si>
-  <si>
     <t>3685694068</t>
   </si>
   <si>
@@ -3334,10 +3316,13 @@
     <t>Current Month Active</t>
   </si>
   <si>
-    <t>Lifetime Cancels (12+ Month Duration)</t>
-  </si>
-  <si>
-    <t>(These plans are added back into Current Month Total Active)</t>
+    <t>Past Lifetime Cancels (12+ Month Duration)</t>
+  </si>
+  <si>
+    <t>Current Lifetime Cancels (12+ Month Duration)</t>
+  </si>
+  <si>
+    <t>(Any new long-term cancels are added back into Current Month Total Active)</t>
   </si>
   <si>
     <t>Net New Active</t>
@@ -3379,13 +3364,16 @@
     <t>Ancillary Plans</t>
   </si>
   <si>
-    <t>Previous Active DVH Plans:</t>
+    <t>Past Active DVH Plans:</t>
   </si>
   <si>
     <t>Current Active DVH Plans:</t>
   </si>
   <si>
-    <t>DVH Lifetime Cancels (12+ Month Duration)</t>
+    <t>Previous DVH Lifetime Cancels (12+ Month Duration)</t>
+  </si>
+  <si>
+    <t>Current DVH Lifetime Cancels (12+ Month Duration)</t>
   </si>
   <si>
     <t>Net New DVH Plans:</t>
@@ -3400,7 +3388,10 @@
     <t>Current Active Copay Plans:</t>
   </si>
   <si>
-    <t>Copay Lifetime Cancels (12+ Month Duration)</t>
+    <t>Past Copay Lifetime Cancels (12+ Month Duration)</t>
+  </si>
+  <si>
+    <t>Current Copay Lifetime Cancels (12+ Month Duration)</t>
   </si>
   <si>
     <t>Net New Copay Plans:</t>
@@ -3810,7 +3801,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3822,12 +3813,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="B2" s="2">
         <v>154</v>
@@ -3835,101 +3826,109 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="B3" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>1105</v>
-      </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B5" s="4">
-        <f>B3+B4-B2</f>
+      <c r="A5" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B5" s="2">
         <v>0</v>
       </c>
+      <c r="C5" s="3" t="s">
+        <v>1100</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B6" s="2">
-        <v>-30</v>
+      <c r="A6" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B6" s="4">
+        <f>-B2+B3-B4+B5</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="B7" s="2">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B8" s="2">
         <v>0</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B8" s="4">
-        <f>SUM(B5:B7)</f>
-        <v>0</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B9" s="5">
-        <f>MAX(0, B8*150)</f>
+        <v>1105</v>
+      </c>
+      <c r="B9" s="4">
+        <f>SUM(B6:B8)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>1113</v>
+      <c r="C9" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B10" s="5">
+        <f>MAX(0, B9*150)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B12" s="2">
+      <c r="A12" s="1" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B13" s="2">
         <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="B17" s="5">
         <f>SUM(Core!T:T)</f>
@@ -3938,12 +3937,12 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="B20">
         <v>15</v>
@@ -3951,7 +3950,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="B21">
         <v>15</v>
@@ -3959,7 +3958,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -3967,55 +3966,67 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B23">
-        <f>-B20+B21+B22</f>
+        <v>1117</v>
+      </c>
+      <c r="B23" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B24" s="5">
-        <f>B23*50</f>
+      <c r="A24" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B24">
+        <f>-B20+B21-B22+B23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B24*50</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B28" s="2">
-        <v>0</v>
-      </c>
+        <v>1122</v>
+      </c>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B29">
-        <f>-B26+B27+B28</f>
+        <v>1123</v>
+      </c>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B30">
+        <f>-B26+B27-B28+B29</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="4" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B30" s="5">
-        <f>B29*100</f>
+    <row r="31" spans="1:2">
+      <c r="A31" s="4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B31" s="5">
+        <f>B30*100</f>
         <v>0</v>
       </c>
     </row>
@@ -7061,13 +7072,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W404"/>
+  <dimension ref="A1:W402"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.7109375" style="8" customWidth="1"/>
+    <col min="1" max="2" width="16.7109375" style="8" customWidth="1"/>
     <col min="3" max="9" width="9.7109375" style="8" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" style="8" customWidth="1"/>
     <col min="11" max="16" width="11.7109375" customWidth="1"/>
@@ -16313,28 +16324,28 @@
         <v>1001</v>
       </c>
       <c r="C362" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D362" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E362" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="F362" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="G362" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="H362" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="I362" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J362" s="8" t="s">
         <v>1002</v>
-      </c>
-      <c r="D362" s="8" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E362" s="8" t="s">
-        <v>1004</v>
-      </c>
-      <c r="F362" s="8" t="s">
-        <v>1005</v>
-      </c>
-      <c r="G362" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="H362" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="I362" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J362" s="8" t="s">
-        <v>967</v>
       </c>
       <c r="K362" t="s">
         <v>19</v>
@@ -16343,10 +16354,10 @@
         <v>18</v>
       </c>
       <c r="M362" t="s">
-        <v>333</v>
+        <v>60</v>
       </c>
       <c r="N362" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q362" s="8" t="s">
         <v>394</v>
@@ -16357,16 +16368,16 @@
     </row>
     <row r="364" spans="1:19">
       <c r="A364" s="7" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C364" s="8" t="s">
-        <v>81</v>
+        <v>957</v>
       </c>
       <c r="D364" s="8" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="E364" s="8" t="s">
         <v>390</v>
@@ -16381,25 +16392,25 @@
         <v>391</v>
       </c>
       <c r="I364" s="8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J364" s="8" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="K364" t="s">
         <v>19</v>
       </c>
       <c r="L364" t="s">
-        <v>18</v>
+        <v>422</v>
       </c>
       <c r="M364" t="s">
-        <v>60</v>
+        <v>355</v>
       </c>
       <c r="N364" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="Q364" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="S364" s="10" t="s">
         <v>395</v>
@@ -16407,13 +16418,13 @@
     </row>
     <row r="366" spans="1:19">
       <c r="A366" s="7" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="C366" s="8" t="s">
-        <v>957</v>
+        <v>146</v>
       </c>
       <c r="D366" s="8" t="s">
         <v>147</v>
@@ -16434,22 +16445,22 @@
         <v>31</v>
       </c>
       <c r="J366" s="8" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="K366" t="s">
         <v>19</v>
       </c>
       <c r="L366" t="s">
-        <v>422</v>
+        <v>18</v>
       </c>
       <c r="M366" t="s">
-        <v>355</v>
+        <v>140</v>
       </c>
       <c r="N366" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="Q366" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="S366" s="10" t="s">
         <v>395</v>
@@ -16457,16 +16468,16 @@
     </row>
     <row r="368" spans="1:19">
       <c r="A368" s="7" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C368" s="8" t="s">
-        <v>146</v>
+        <v>1010</v>
       </c>
       <c r="D368" s="8" t="s">
-        <v>147</v>
+        <v>1011</v>
       </c>
       <c r="E368" s="8" t="s">
         <v>390</v>
@@ -16484,22 +16495,22 @@
         <v>31</v>
       </c>
       <c r="J368" s="8" t="s">
-        <v>1011</v>
+        <v>883</v>
       </c>
       <c r="K368" t="s">
         <v>19</v>
       </c>
       <c r="L368" t="s">
-        <v>18</v>
+        <v>422</v>
       </c>
       <c r="M368" t="s">
-        <v>140</v>
+        <v>355</v>
       </c>
       <c r="N368" t="s">
         <v>21</v>
       </c>
       <c r="Q368" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="S368" s="10" t="s">
         <v>395</v>
@@ -16507,16 +16518,16 @@
     </row>
     <row r="370" spans="1:19">
       <c r="A370" s="7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B370" s="7" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C370" s="8" t="s">
         <v>1014</v>
       </c>
-      <c r="B370" s="7" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C370" s="8" t="s">
-        <v>1016</v>
-      </c>
       <c r="D370" s="8" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="E370" s="8" t="s">
         <v>390</v>
@@ -16557,16 +16568,16 @@
     </row>
     <row r="372" spans="1:19">
       <c r="A372" s="7" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="C372" s="8" t="s">
-        <v>1020</v>
+        <v>85</v>
       </c>
       <c r="D372" s="8" t="s">
-        <v>1017</v>
+        <v>86</v>
       </c>
       <c r="E372" s="8" t="s">
         <v>390</v>
@@ -16584,22 +16595,22 @@
         <v>31</v>
       </c>
       <c r="J372" s="8" t="s">
-        <v>883</v>
+        <v>820</v>
       </c>
       <c r="K372" t="s">
         <v>19</v>
       </c>
       <c r="L372" t="s">
-        <v>422</v>
+        <v>18</v>
       </c>
       <c r="M372" t="s">
-        <v>355</v>
+        <v>60</v>
       </c>
       <c r="N372" t="s">
         <v>21</v>
       </c>
       <c r="Q372" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="S372" s="10" t="s">
         <v>395</v>
@@ -16607,16 +16618,16 @@
     </row>
     <row r="374" spans="1:19">
       <c r="A374" s="7" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B374" s="7" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="C374" s="8" t="s">
-        <v>85</v>
+        <v>1019</v>
       </c>
       <c r="D374" s="8" t="s">
-        <v>86</v>
+        <v>1020</v>
       </c>
       <c r="E374" s="8" t="s">
         <v>390</v>
@@ -16634,22 +16645,22 @@
         <v>31</v>
       </c>
       <c r="J374" s="8" t="s">
-        <v>820</v>
+        <v>1021</v>
       </c>
       <c r="K374" t="s">
         <v>19</v>
       </c>
       <c r="L374" t="s">
-        <v>18</v>
+        <v>422</v>
       </c>
       <c r="M374" t="s">
-        <v>60</v>
+        <v>833</v>
       </c>
       <c r="N374" t="s">
         <v>21</v>
       </c>
       <c r="Q374" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="S374" s="10" t="s">
         <v>395</v>
@@ -16657,49 +16668,49 @@
     </row>
     <row r="376" spans="1:19">
       <c r="A376" s="7" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B376" s="7" t="s">
         <v>1023</v>
       </c>
-      <c r="B376" s="7" t="s">
+      <c r="C376" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="D376" s="8" t="s">
         <v>1024</v>
       </c>
-      <c r="C376" s="8" t="s">
+      <c r="E376" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="F376" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="G376" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="H376" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="I376" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="J376" s="8" t="s">
         <v>1025</v>
-      </c>
-      <c r="D376" s="8" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E376" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="F376" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="G376" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="H376" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="I376" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J376" s="8" t="s">
-        <v>1027</v>
       </c>
       <c r="K376" t="s">
         <v>19</v>
       </c>
       <c r="L376" t="s">
-        <v>422</v>
+        <v>18</v>
       </c>
       <c r="M376" t="s">
-        <v>833</v>
+        <v>525</v>
       </c>
       <c r="N376" t="s">
-        <v>21</v>
+        <v>325</v>
       </c>
       <c r="Q376" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="S376" s="10" t="s">
         <v>395</v>
@@ -16707,34 +16718,34 @@
     </row>
     <row r="378" spans="1:19">
       <c r="A378" s="7" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B378" s="7" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C378" s="8" t="s">
         <v>1028</v>
       </c>
-      <c r="B378" s="7" t="s">
+      <c r="D378" s="8" t="s">
         <v>1029</v>
       </c>
-      <c r="C378" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="D378" s="8" t="s">
+      <c r="E378" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="F378" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="G378" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="H378" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="I378" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J378" s="8" t="s">
         <v>1030</v>
-      </c>
-      <c r="E378" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="F378" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="G378" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="H378" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="I378" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="J378" s="8" t="s">
-        <v>1031</v>
       </c>
       <c r="K378" t="s">
         <v>19</v>
@@ -16743,10 +16754,10 @@
         <v>18</v>
       </c>
       <c r="M378" t="s">
-        <v>525</v>
+        <v>939</v>
       </c>
       <c r="N378" t="s">
-        <v>325</v>
+        <v>32</v>
       </c>
       <c r="Q378" s="8" t="s">
         <v>394</v>
@@ -16757,17 +16768,17 @@
     </row>
     <row r="380" spans="1:19">
       <c r="A380" s="7" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B380" s="7" t="s">
         <v>1032</v>
       </c>
-      <c r="B380" s="7" t="s">
+      <c r="C380" s="8" t="s">
         <v>1033</v>
       </c>
-      <c r="C380" s="8" t="s">
+      <c r="D380" s="8" t="s">
         <v>1034</v>
       </c>
-      <c r="D380" s="8" t="s">
-        <v>1035</v>
-      </c>
       <c r="E380" s="8" t="s">
         <v>390</v>
       </c>
@@ -16781,10 +16792,10 @@
         <v>391</v>
       </c>
       <c r="I380" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J380" s="8" t="s">
-        <v>1036</v>
+        <v>970</v>
       </c>
       <c r="K380" t="s">
         <v>19</v>
@@ -16793,7 +16804,7 @@
         <v>18</v>
       </c>
       <c r="M380" t="s">
-        <v>939</v>
+        <v>604</v>
       </c>
       <c r="N380" t="s">
         <v>32</v>
@@ -16807,16 +16818,16 @@
     </row>
     <row r="382" spans="1:19">
       <c r="A382" s="7" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B382" s="7" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C382" s="8" t="s">
-        <v>1039</v>
+        <v>89</v>
       </c>
       <c r="D382" s="8" t="s">
-        <v>1040</v>
+        <v>90</v>
       </c>
       <c r="E382" s="8" t="s">
         <v>390</v>
@@ -16831,10 +16842,10 @@
         <v>391</v>
       </c>
       <c r="I382" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J382" s="8" t="s">
-        <v>970</v>
+        <v>855</v>
       </c>
       <c r="K382" t="s">
         <v>19</v>
@@ -16843,10 +16854,10 @@
         <v>18</v>
       </c>
       <c r="M382" t="s">
-        <v>604</v>
+        <v>60</v>
       </c>
       <c r="N382" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="Q382" s="8" t="s">
         <v>394</v>
@@ -16857,16 +16868,16 @@
     </row>
     <row r="384" spans="1:19">
       <c r="A384" s="7" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="C384" s="8" t="s">
-        <v>89</v>
+        <v>178</v>
       </c>
       <c r="D384" s="8" t="s">
-        <v>90</v>
+        <v>366</v>
       </c>
       <c r="E384" s="8" t="s">
         <v>390</v>
@@ -16884,22 +16895,22 @@
         <v>31</v>
       </c>
       <c r="J384" s="8" t="s">
-        <v>855</v>
+        <v>1039</v>
       </c>
       <c r="K384" t="s">
         <v>19</v>
       </c>
       <c r="L384" t="s">
-        <v>18</v>
-      </c>
-      <c r="M384" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="N384" t="s">
-        <v>91</v>
+        <v>21</v>
+      </c>
+      <c r="O384" t="s">
+        <v>186</v>
       </c>
       <c r="Q384" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="S384" s="10" t="s">
         <v>395</v>
@@ -16907,16 +16918,16 @@
     </row>
     <row r="386" spans="1:19">
       <c r="A386" s="7" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="B386" s="7" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="C386" s="8" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="D386" s="8" t="s">
-        <v>366</v>
+        <v>227</v>
       </c>
       <c r="E386" s="8" t="s">
         <v>390</v>
@@ -16934,22 +16945,22 @@
         <v>31</v>
       </c>
       <c r="J386" s="8" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="K386" t="s">
         <v>19</v>
       </c>
       <c r="L386" t="s">
-        <v>134</v>
+        <v>18</v>
+      </c>
+      <c r="M386" t="s">
+        <v>217</v>
       </c>
       <c r="N386" t="s">
         <v>21</v>
       </c>
-      <c r="O386" t="s">
-        <v>186</v>
-      </c>
       <c r="Q386" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="S386" s="10" t="s">
         <v>395</v>
@@ -16957,16 +16968,16 @@
     </row>
     <row r="388" spans="1:19">
       <c r="A388" s="7" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="B388" s="7" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="C388" s="8" t="s">
-        <v>197</v>
+        <v>244</v>
       </c>
       <c r="D388" s="8" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="E388" s="8" t="s">
         <v>390</v>
@@ -16984,7 +16995,7 @@
         <v>31</v>
       </c>
       <c r="J388" s="8" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="K388" t="s">
         <v>19</v>
@@ -16993,7 +17004,7 @@
         <v>18</v>
       </c>
       <c r="M388" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="N388" t="s">
         <v>21</v>
@@ -17007,16 +17018,16 @@
     </row>
     <row r="390" spans="1:19">
       <c r="A390" s="7" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="C390" s="8" t="s">
-        <v>244</v>
+        <v>102</v>
       </c>
       <c r="D390" s="8" t="s">
-        <v>245</v>
+        <v>103</v>
       </c>
       <c r="E390" s="8" t="s">
         <v>390</v>
@@ -17034,7 +17045,7 @@
         <v>31</v>
       </c>
       <c r="J390" s="8" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K390" t="s">
         <v>19</v>
@@ -17043,7 +17054,7 @@
         <v>18</v>
       </c>
       <c r="M390" t="s">
-        <v>238</v>
+        <v>96</v>
       </c>
       <c r="N390" t="s">
         <v>21</v>
@@ -17057,31 +17068,31 @@
     </row>
     <row r="392" spans="1:19">
       <c r="A392" s="7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B392" s="7" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C392" s="8" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D392" s="8" t="s">
         <v>1051</v>
       </c>
-      <c r="B392" s="7" t="s">
+      <c r="E392" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="F392" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="G392" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="H392" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="I392" s="8" t="s">
         <v>1052</v>
-      </c>
-      <c r="C392" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D392" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E392" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="F392" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="G392" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="H392" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="I392" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="J392" s="8" t="s">
         <v>1053</v>
@@ -17093,10 +17104,10 @@
         <v>18</v>
       </c>
       <c r="M392" t="s">
-        <v>96</v>
+        <v>455</v>
       </c>
       <c r="N392" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="Q392" s="8" t="s">
         <v>394</v>
@@ -17131,10 +17142,10 @@
         <v>391</v>
       </c>
       <c r="I394" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="J394" s="8" t="s">
         <v>1058</v>
-      </c>
-      <c r="J394" s="8" t="s">
-        <v>1059</v>
       </c>
       <c r="K394" t="s">
         <v>19</v>
@@ -17143,7 +17154,7 @@
         <v>18</v>
       </c>
       <c r="M394" t="s">
-        <v>455</v>
+        <v>1059</v>
       </c>
       <c r="N394" t="s">
         <v>32</v>
@@ -17181,7 +17192,7 @@
         <v>391</v>
       </c>
       <c r="I396" s="8" t="s">
-        <v>232</v>
+        <v>31</v>
       </c>
       <c r="J396" s="8" t="s">
         <v>1064</v>
@@ -17193,10 +17204,10 @@
         <v>18</v>
       </c>
       <c r="M396" t="s">
-        <v>1065</v>
+        <v>579</v>
       </c>
       <c r="N396" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q396" s="8" t="s">
         <v>394</v>
@@ -17207,16 +17218,16 @@
     </row>
     <row r="398" spans="1:19">
       <c r="A398" s="7" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B398" s="7" t="s">
         <v>1066</v>
       </c>
-      <c r="B398" s="7" t="s">
+      <c r="C398" s="8" t="s">
         <v>1067</v>
       </c>
-      <c r="C398" s="8" t="s">
-        <v>1068</v>
-      </c>
       <c r="D398" s="8" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="E398" s="8" t="s">
         <v>390</v>
@@ -17234,7 +17245,7 @@
         <v>31</v>
       </c>
       <c r="J398" s="8" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="K398" t="s">
         <v>19</v>
@@ -17257,34 +17268,34 @@
     </row>
     <row r="400" spans="1:19">
       <c r="A400" s="7" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B400" s="7" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C400" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D400" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E400" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="F400" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="G400" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="H400" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="I400" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="J400" s="8" t="s">
         <v>1071</v>
-      </c>
-      <c r="B400" s="7" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C400" s="8" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D400" s="8" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E400" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="F400" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="G400" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="H400" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="I400" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J400" s="8" t="s">
-        <v>1074</v>
       </c>
       <c r="K400" t="s">
         <v>19</v>
@@ -17293,10 +17304,10 @@
         <v>18</v>
       </c>
       <c r="M400" t="s">
-        <v>579</v>
+        <v>217</v>
       </c>
       <c r="N400" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="Q400" s="8" t="s">
         <v>394</v>
@@ -17307,16 +17318,16 @@
     </row>
     <row r="402" spans="1:19">
       <c r="A402" s="7" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="B402" s="7" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="C402" s="8" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="D402" s="8" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="E402" s="8" t="s">
         <v>390</v>
@@ -17331,10 +17342,10 @@
         <v>391</v>
       </c>
       <c r="I402" s="8" t="s">
-        <v>232</v>
+        <v>31</v>
       </c>
       <c r="J402" s="8" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="K402" t="s">
         <v>19</v>
@@ -17343,65 +17354,15 @@
         <v>18</v>
       </c>
       <c r="M402" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="N402" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="Q402" s="8" t="s">
         <v>394</v>
       </c>
       <c r="S402" s="10" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="404" spans="1:19">
-      <c r="A404" s="7" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B404" s="7" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C404" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D404" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="E404" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="F404" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="G404" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="H404" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="I404" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J404" s="8" t="s">
-        <v>1080</v>
-      </c>
-      <c r="K404" t="s">
-        <v>19</v>
-      </c>
-      <c r="L404" t="s">
-        <v>18</v>
-      </c>
-      <c r="M404" t="s">
-        <v>20</v>
-      </c>
-      <c r="N404" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q404" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="S404" s="10" t="s">
         <v>395</v>
       </c>
     </row>
@@ -17813,8 +17774,6 @@
     <hyperlink ref="B400" r:id="rId404"/>
     <hyperlink ref="A402" r:id="rId405"/>
     <hyperlink ref="B402" r:id="rId406"/>
-    <hyperlink ref="A404" r:id="rId407"/>
-    <hyperlink ref="B404" r:id="rId408"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17828,7 +17787,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.7109375" style="8" customWidth="1"/>
+    <col min="1" max="2" width="16.7109375" style="8" customWidth="1"/>
     <col min="3" max="9" width="9.7109375" style="8" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" style="8" customWidth="1"/>
     <col min="11" max="16" width="11.7109375" customWidth="1"/>
@@ -17895,7 +17854,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="7" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>397</v>
@@ -17919,13 +17878,13 @@
         <v>391</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="K2" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="L2" t="s">
         <v>18</v>
@@ -17939,7 +17898,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="7" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>400</v>
@@ -17963,13 +17922,13 @@
         <v>391</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="K4" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="L4" t="s">
         <v>18</v>
@@ -17983,7 +17942,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="7" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>440</v>
@@ -18007,13 +17966,13 @@
         <v>391</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="K6" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="L6" t="s">
         <v>18</v>
@@ -18027,7 +17986,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="7" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>507</v>
@@ -18051,10 +18010,10 @@
         <v>391</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="K8" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="L8" t="s">
         <v>18</v>
@@ -18068,7 +18027,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="7" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>510</v>
@@ -18092,10 +18051,10 @@
         <v>391</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="K10" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="L10" t="s">
         <v>18</v>
@@ -18109,7 +18068,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="7" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>514</v>
@@ -18133,13 +18092,13 @@
         <v>391</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="K12" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="L12" t="s">
         <v>422</v>
@@ -18153,7 +18112,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="7" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>516</v>
@@ -18177,13 +18136,13 @@
         <v>391</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="K14" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="L14" t="s">
         <v>422</v>
@@ -18197,7 +18156,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="7" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>522</v>
@@ -18221,13 +18180,13 @@
         <v>391</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="K16" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="L16" t="s">
         <v>18</v>
@@ -18241,7 +18200,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="7" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>566</v>
@@ -18265,10 +18224,10 @@
         <v>391</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="K18" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="L18" t="s">
         <v>18</v>
@@ -18282,7 +18241,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="7" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>581</v>
@@ -18306,13 +18265,13 @@
         <v>391</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="K20" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="L20" t="s">
         <v>18</v>
@@ -18326,7 +18285,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="7" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>610</v>
@@ -18350,13 +18309,13 @@
         <v>391</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="K22" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="L22" t="s">
         <v>422</v>
@@ -18370,7 +18329,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="7" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>666</v>
@@ -18394,13 +18353,13 @@
         <v>391</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="K24" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="L24" t="s">
         <v>18</v>
@@ -18414,7 +18373,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="7" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>727</v>
@@ -18438,10 +18397,10 @@
         <v>391</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="K26" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="L26" t="s">
         <v>18</v>
@@ -18455,7 +18414,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="7" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>734</v>
@@ -18479,13 +18438,13 @@
         <v>391</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="K28" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="L28" t="s">
         <v>18</v>
@@ -18499,7 +18458,7 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="7" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>759</v>
@@ -18523,13 +18482,13 @@
         <v>391</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="K30" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="L30" t="s">
         <v>18</v>
@@ -18543,7 +18502,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="7" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>794</v>
@@ -18567,13 +18526,13 @@
         <v>391</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="K32" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="L32" t="s">
         <v>422</v>
@@ -18587,7 +18546,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="7" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>800</v>
@@ -18611,13 +18570,13 @@
         <v>391</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="K34" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="L34" t="s">
         <v>18</v>
